--- a/database/industries/ravankar/sheranol/product/monthly_seprated.xlsx
+++ b/database/industries/ravankar/sheranol/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="94">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3378,80 +3378,80 @@
       <c r="AC11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="13" t="s">
-        <v>58</v>
+      <c r="AD11" s="13" t="n">
+        <v>10822</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>10822</v>
+        <v>13099</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>13099</v>
+        <v>7697</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>7697</v>
+        <v>7390</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>7390</v>
+        <v>8996</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>8996</v>
+        <v>13152</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>13152</v>
+        <v>6747</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>6747</v>
+        <v>6575</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>6575</v>
+        <v>8477</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>8477</v>
+        <v>7209</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>7209</v>
+        <v>6123</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>6123</v>
+        <v>4163</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>4163</v>
+        <v>8056</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>8056</v>
+        <v>11939</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>11939</v>
+        <v>7146</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>7146</v>
+        <v>4914</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>4914</v>
+        <v>11626</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>11626</v>
+        <v>9591</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>9591</v>
+        <v>10473</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>10473</v>
+        <v>6997</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>6997</v>
+        <v>4913</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>4913</v>
+        <v>6985</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>6985</v>
+        <v>6866</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>6866</v>
+        <v>7890</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>7890</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,65 +3510,65 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>510</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>510</v>
+        <v>84</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>332</v>
+        <v>89</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>94</v>
+        <v>409</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>409</v>
+        <v>538</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>538</v>
+        <v>454</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="16" t="n">
         <v>0</v>
@@ -3577,40 +3577,40 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,35 +3669,35 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>25394</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>25394</v>
+        <v>28594</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>28594</v>
+        <v>33360</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>33360</v>
+        <v>15054</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>15054</v>
+        <v>26135</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>26135</v>
+        <v>26059</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>26059</v>
+        <v>19496</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>19496</v>
+        <v>29699</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>29699</v>
-      </c>
-      <c r="AD13" s="13" t="n">
         <v>31753</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE13" s="13" t="s">
         <v>58</v>
@@ -3828,35 +3828,35 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>2783</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>2783</v>
+        <v>425</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>425</v>
+        <v>4128</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>4128</v>
+        <v>3846</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>3846</v>
+        <v>4043</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>4043</v>
+        <v>3207</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>3203</v>
+        <v>2742</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>2742</v>
-      </c>
-      <c r="AD14" s="16" t="n">
         <v>4527</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE14" s="16" t="s">
         <v>58</v>
@@ -4014,80 +4014,80 @@
       <c r="AC15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD15" s="13" t="s">
-        <v>58</v>
+      <c r="AD15" s="13" t="n">
+        <v>1214</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>1214</v>
+        <v>1739</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>1739</v>
+        <v>1268</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>1268</v>
+        <v>6652</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>6652</v>
+        <v>1758</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>1758</v>
+        <v>11142</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>11142</v>
+        <v>3895</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>3895</v>
+        <v>4904</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>4904</v>
+        <v>3949</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>3949</v>
+        <v>3486</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>3486</v>
+        <v>3126</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>3126</v>
+        <v>3556</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>3556</v>
+        <v>2110</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>2110</v>
+        <v>3717</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>3717</v>
+        <v>4271</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>4271</v>
+        <v>5064</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>5064</v>
+        <v>6229</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>6229</v>
+        <v>6285</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>6285</v>
+        <v>4762</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>4762</v>
+        <v>4427</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>4427</v>
+        <v>4489</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>4489</v>
+        <v>4507</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>4507</v>
+        <v>5170</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>5170</v>
+        <v>5110</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>5110</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,8 +4146,8 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="16" t="n">
         <v>0</v>
@@ -4234,19 +4234,19 @@
         <v>0</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,80 +4332,80 @@
       <c r="AC17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>58</v>
+      <c r="AD17" s="13" t="n">
+        <v>2214</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>2214</v>
+        <v>3398</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>3398</v>
+        <v>1826</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>1826</v>
+        <v>736</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>736</v>
+        <v>2530</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>2530</v>
+        <v>3817</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>3817</v>
+        <v>3182</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>3182</v>
+        <v>2400</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>2400</v>
+        <v>3088</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>3088</v>
+        <v>2995</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>2995</v>
+        <v>1371</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>1371</v>
+        <v>2773</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>2773</v>
+        <v>1204</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>1204</v>
+        <v>1736</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>1736</v>
+        <v>1383</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>1383</v>
+        <v>2684</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>2684</v>
+        <v>3303</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>3303</v>
+        <v>1795</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>1795</v>
+        <v>823</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>823</v>
+        <v>885</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>885</v>
+        <v>3523</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>3523</v>
+        <v>2632</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>2632</v>
+        <v>2362</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>2362</v>
+        <v>2054</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>2054</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,80 +4491,80 @@
       <c r="AC18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" s="16" t="s">
-        <v>58</v>
+      <c r="AD18" s="16" t="n">
+        <v>1548</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>1548</v>
+        <v>3442</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>3442</v>
+        <v>3436</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>3436</v>
+        <v>4250</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>4250</v>
+        <v>5615</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>5615</v>
+        <v>5759</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>5759</v>
+        <v>4517</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>4517</v>
+        <v>4473</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>4473</v>
+        <v>4838</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>4838</v>
+        <v>4722</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>4722</v>
+        <v>2196</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>2196</v>
+        <v>3016</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>3016</v>
+        <v>2730</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>2730</v>
+        <v>2349</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>2349</v>
+        <v>2049</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>2049</v>
+        <v>5053</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>5053</v>
+        <v>4569</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>4569</v>
+        <v>3427</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>3427</v>
+        <v>4017</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>4017</v>
+        <v>6334</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>6334</v>
+        <v>5429</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>5429</v>
+        <v>6853</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>6853</v>
+        <v>6710</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>6710</v>
+        <v>5776</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>5776</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,80 +4650,80 @@
       <c r="AC19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD19" s="13" t="s">
-        <v>58</v>
+      <c r="AD19" s="13" t="n">
+        <v>2649</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>2649</v>
+        <v>3733</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>3733</v>
+        <v>3589</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>3589</v>
+        <v>3209</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>3209</v>
+        <v>3241</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>3241</v>
+        <v>5611</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>5611</v>
+        <v>4958</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>4958</v>
+        <v>5089</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>5089</v>
+        <v>4344</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>4344</v>
+        <v>4727</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>4727</v>
+        <v>5301</v>
       </c>
       <c r="AO19" s="13" t="n">
-        <v>5301</v>
+        <v>4185</v>
       </c>
       <c r="AP19" s="13" t="n">
-        <v>4185</v>
+        <v>3382</v>
       </c>
       <c r="AQ19" s="13" t="n">
-        <v>3382</v>
+        <v>3803</v>
       </c>
       <c r="AR19" s="13" t="n">
-        <v>3803</v>
+        <v>2943</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>2943</v>
+        <v>5003</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>5003</v>
+        <v>5604</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>5604</v>
+        <v>6414</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>6414</v>
+        <v>5073</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>5073</v>
+        <v>4394</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>4394</v>
+        <v>4998</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>4998</v>
+        <v>5319</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>5319</v>
+        <v>4697</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>4697</v>
+        <v>3336</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>3336</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,80 +4809,80 @@
       <c r="AC20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD20" s="16" t="s">
-        <v>58</v>
+      <c r="AD20" s="16" t="n">
+        <v>1957</v>
       </c>
       <c r="AE20" s="16" t="n">
-        <v>1957</v>
+        <v>2273</v>
       </c>
       <c r="AF20" s="16" t="n">
-        <v>2273</v>
+        <v>2234</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>2234</v>
+        <v>1571</v>
       </c>
       <c r="AH20" s="16" t="n">
-        <v>1571</v>
+        <v>1951</v>
       </c>
       <c r="AI20" s="16" t="n">
-        <v>1951</v>
+        <v>3257</v>
       </c>
       <c r="AJ20" s="16" t="n">
-        <v>3257</v>
+        <v>2530</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>2530</v>
+        <v>3085</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>3085</v>
+        <v>3278</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>3278</v>
+        <v>2949</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>2949</v>
+        <v>3273</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>3273</v>
+        <v>2851</v>
       </c>
       <c r="AP20" s="16" t="n">
-        <v>2851</v>
+        <v>1888</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>1888</v>
+        <v>3904</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>3904</v>
+        <v>2261</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>2261</v>
+        <v>1814</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>1814</v>
+        <v>2309</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>2309</v>
+        <v>2519</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>2519</v>
+        <v>2053</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>2053</v>
+        <v>2664</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>2664</v>
+        <v>2704</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>2704</v>
+        <v>3124</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>3124</v>
+        <v>3067</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>3067</v>
+        <v>2085</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>2085</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,80 +4968,80 @@
       <c r="AC21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>58</v>
+      <c r="AD21" s="13" t="n">
+        <v>11416</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>11416</v>
+        <v>9007</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>9007</v>
+        <v>10289</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>10289</v>
+        <v>4370</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>4370</v>
+        <v>7876</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>7876</v>
+        <v>9258</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>9258</v>
+        <v>5941</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>5941</v>
+        <v>8980</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>8980</v>
+        <v>9097</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>9097</v>
+        <v>10564</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>10564</v>
+        <v>8736</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>8736</v>
+        <v>7054</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>7054</v>
+        <v>9868</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>9868</v>
+        <v>9887</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>9887</v>
+        <v>7790</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>7790</v>
+        <v>6054</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>6054</v>
+        <v>11146</v>
       </c>
       <c r="AU21" s="13" t="n">
-        <v>11146</v>
+        <v>6677</v>
       </c>
       <c r="AV21" s="13" t="n">
-        <v>6677</v>
+        <v>7406</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>7406</v>
+        <v>7242</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>7242</v>
+        <v>11600</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>11600</v>
+        <v>8345</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>8345</v>
+        <v>8376</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>8376</v>
+        <v>5925</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>5925</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,106 +5099,106 @@
         <v>0</v>
       </c>
       <c r="U22" s="18" t="n">
-        <v>0</v>
+        <v>28687</v>
       </c>
       <c r="V22" s="18" t="n">
-        <v>28687</v>
+        <v>29103</v>
       </c>
       <c r="W22" s="18" t="n">
-        <v>29103</v>
+        <v>37820</v>
       </c>
       <c r="X22" s="18" t="n">
-        <v>37820</v>
+        <v>18989</v>
       </c>
       <c r="Y22" s="18" t="n">
-        <v>18989</v>
+        <v>30178</v>
       </c>
       <c r="Z22" s="18" t="n">
-        <v>30178</v>
+        <v>29449</v>
       </c>
       <c r="AA22" s="18" t="n">
-        <v>29449</v>
+        <v>22743</v>
       </c>
       <c r="AB22" s="18" t="n">
-        <v>22743</v>
+        <v>32441</v>
       </c>
       <c r="AC22" s="18" t="n">
-        <v>32441</v>
+        <v>36290</v>
       </c>
       <c r="AD22" s="18" t="n">
-        <v>36290</v>
+        <v>31820</v>
       </c>
       <c r="AE22" s="18" t="n">
-        <v>31820</v>
+        <v>36785</v>
       </c>
       <c r="AF22" s="18" t="n">
-        <v>36785</v>
+        <v>30748</v>
       </c>
       <c r="AG22" s="18" t="n">
-        <v>30748</v>
+        <v>28716</v>
       </c>
       <c r="AH22" s="18" t="n">
-        <v>28716</v>
+        <v>32421</v>
       </c>
       <c r="AI22" s="18" t="n">
-        <v>32421</v>
+        <v>52180</v>
       </c>
       <c r="AJ22" s="18" t="n">
-        <v>52180</v>
+        <v>31803</v>
       </c>
       <c r="AK22" s="18" t="n">
-        <v>31803</v>
+        <v>35611</v>
       </c>
       <c r="AL22" s="18" t="n">
-        <v>35611</v>
+        <v>37204</v>
       </c>
       <c r="AM22" s="18" t="n">
-        <v>37204</v>
+        <v>36659</v>
       </c>
       <c r="AN22" s="18" t="n">
-        <v>36659</v>
+        <v>30126</v>
       </c>
       <c r="AO22" s="18" t="n">
-        <v>30126</v>
+        <v>27598</v>
       </c>
       <c r="AP22" s="18" t="n">
-        <v>27598</v>
+        <v>29238</v>
       </c>
       <c r="AQ22" s="18" t="n">
-        <v>29238</v>
+        <v>37501</v>
       </c>
       <c r="AR22" s="18" t="n">
-        <v>37501</v>
+        <v>28055</v>
       </c>
       <c r="AS22" s="18" t="n">
-        <v>28055</v>
+        <v>30586</v>
       </c>
       <c r="AT22" s="18" t="n">
-        <v>30586</v>
+        <v>45221</v>
       </c>
       <c r="AU22" s="18" t="n">
-        <v>45221</v>
+        <v>37062</v>
       </c>
       <c r="AV22" s="18" t="n">
-        <v>37062</v>
+        <v>34994</v>
       </c>
       <c r="AW22" s="18" t="n">
-        <v>34994</v>
+        <v>33042</v>
       </c>
       <c r="AX22" s="18" t="n">
-        <v>33042</v>
+        <v>37957</v>
       </c>
       <c r="AY22" s="18" t="n">
-        <v>37957</v>
+        <v>37847</v>
       </c>
       <c r="AZ22" s="18" t="n">
-        <v>37847</v>
+        <v>37292</v>
       </c>
       <c r="BA22" s="18" t="n">
-        <v>37292</v>
+        <v>32193</v>
       </c>
       <c r="BB22" s="18" t="n">
-        <v>32193</v>
+        <v>23156</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,44 +5347,44 @@
       <c r="AE24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG24" s="13" t="n">
+      <c r="AF24" s="13" t="n">
         <v>1072</v>
       </c>
+      <c r="AG24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI24" s="13" t="s">
-        <v>58</v>
+      <c r="AI24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ24" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AK24" s="13" t="n">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="AL24" s="13" t="n">
-        <v>924</v>
+        <v>108</v>
       </c>
       <c r="AM24" s="13" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="AN24" s="13" t="n">
-        <v>61</v>
+        <v>406</v>
       </c>
       <c r="AO24" s="13" t="n">
-        <v>406</v>
-      </c>
-      <c r="AP24" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
+      <c r="AR24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS24" s="13" t="n">
         <v>0</v>
@@ -5408,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="13" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="BA24" s="13" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="13" t="n">
         <v>0</v>
@@ -5473,35 +5473,35 @@
       <c r="T25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="16" t="s">
-        <v>58</v>
+      <c r="U25" s="16" t="n">
+        <v>14063</v>
       </c>
       <c r="V25" s="16" t="n">
-        <v>14063</v>
+        <v>13807</v>
       </c>
       <c r="W25" s="16" t="n">
-        <v>13807</v>
+        <v>13660</v>
       </c>
       <c r="X25" s="16" t="n">
-        <v>13660</v>
+        <v>24523</v>
       </c>
       <c r="Y25" s="16" t="n">
-        <v>24523</v>
+        <v>14827</v>
       </c>
       <c r="Z25" s="16" t="n">
-        <v>14827</v>
+        <v>26288</v>
       </c>
       <c r="AA25" s="16" t="n">
-        <v>26288</v>
+        <v>21804</v>
       </c>
       <c r="AB25" s="16" t="n">
-        <v>21804</v>
+        <v>6654</v>
       </c>
       <c r="AC25" s="16" t="n">
-        <v>6654</v>
-      </c>
-      <c r="AD25" s="16" t="n">
         <v>20879</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE25" s="16" t="s">
         <v>58</v>
@@ -5632,35 +5632,35 @@
       <c r="T26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>58</v>
+      <c r="U26" s="13" t="n">
+        <v>3145</v>
       </c>
       <c r="V26" s="13" t="n">
-        <v>3145</v>
+        <v>5237</v>
       </c>
       <c r="W26" s="13" t="n">
-        <v>5237</v>
+        <v>2062</v>
       </c>
       <c r="X26" s="13" t="n">
-        <v>2062</v>
+        <v>1473</v>
       </c>
       <c r="Y26" s="13" t="n">
-        <v>1473</v>
+        <v>1027</v>
       </c>
       <c r="Z26" s="13" t="n">
-        <v>1027</v>
+        <v>3224</v>
       </c>
       <c r="AA26" s="13" t="n">
-        <v>3224</v>
+        <v>2512</v>
       </c>
       <c r="AB26" s="13" t="n">
-        <v>2512</v>
+        <v>1952</v>
       </c>
       <c r="AC26" s="13" t="n">
-        <v>1952</v>
-      </c>
-      <c r="AD26" s="13" t="n">
         <v>2324</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE26" s="13" t="s">
         <v>58</v>
@@ -5818,77 +5818,77 @@
       <c r="AC27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="16" t="s">
-        <v>58</v>
+      <c r="AD27" s="16" t="n">
+        <v>352</v>
       </c>
       <c r="AE27" s="16" t="n">
-        <v>352</v>
+        <v>14230</v>
       </c>
       <c r="AF27" s="16" t="n">
-        <v>14230</v>
+        <v>2590</v>
       </c>
       <c r="AG27" s="16" t="n">
-        <v>2590</v>
-      </c>
-      <c r="AH27" s="16" t="n">
         <v>3433</v>
       </c>
-      <c r="AI27" s="16" t="s">
-        <v>58</v>
+      <c r="AH27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI27" s="16" t="n">
+        <v>2249</v>
       </c>
       <c r="AJ27" s="16" t="n">
-        <v>2249</v>
+        <v>449</v>
       </c>
       <c r="AK27" s="16" t="n">
-        <v>449</v>
+        <v>15200</v>
       </c>
       <c r="AL27" s="16" t="n">
-        <v>15200</v>
+        <v>2436</v>
       </c>
       <c r="AM27" s="16" t="n">
-        <v>2436</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="16" t="n">
-        <v>0</v>
+        <v>13799</v>
       </c>
       <c r="AO27" s="16" t="n">
-        <v>13799</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="16" t="n">
-        <v>0</v>
+        <v>6034</v>
       </c>
       <c r="AQ27" s="16" t="n">
-        <v>6034</v>
+        <v>9999</v>
       </c>
       <c r="AR27" s="16" t="n">
-        <v>9999</v>
+        <v>7055</v>
       </c>
       <c r="AS27" s="16" t="n">
-        <v>7055</v>
+        <v>14687</v>
       </c>
       <c r="AT27" s="16" t="n">
-        <v>14687</v>
+        <v>850</v>
       </c>
       <c r="AU27" s="16" t="n">
-        <v>850</v>
+        <v>3460</v>
       </c>
       <c r="AV27" s="16" t="n">
-        <v>3460</v>
+        <v>2181</v>
       </c>
       <c r="AW27" s="16" t="n">
-        <v>2181</v>
+        <v>3655</v>
       </c>
       <c r="AX27" s="16" t="n">
-        <v>3655</v>
+        <v>7168</v>
       </c>
       <c r="AY27" s="16" t="n">
-        <v>7168</v>
+        <v>3340</v>
       </c>
       <c r="AZ27" s="16" t="n">
-        <v>3340</v>
+        <v>2683</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>2683</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="16" t="n">
         <v>0</v>
@@ -5977,80 +5977,80 @@
       <c r="AC28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="13" t="s">
-        <v>58</v>
+      <c r="AD28" s="13" t="n">
+        <v>3522</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>3522</v>
+        <v>3001</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>3001</v>
+        <v>2321</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>2321</v>
+        <v>2796</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>2796</v>
+        <v>2926</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>2926</v>
+        <v>3843</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>3843</v>
+        <v>2005</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>2005</v>
+        <v>4704</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>4704</v>
+        <v>2806</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>2806</v>
+        <v>2645</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>2645</v>
+        <v>5181</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>5181</v>
+        <v>2896</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>2896</v>
+        <v>4374</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>4374</v>
+        <v>5269</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>5269</v>
+        <v>3800</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>3800</v>
+        <v>2653</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>2653</v>
+        <v>2835</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>2835</v>
+        <v>4490</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>4490</v>
+        <v>4925</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>4925</v>
+        <v>5726</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>5726</v>
+        <v>2857</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>2857</v>
+        <v>2124</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>2124</v>
+        <v>3053</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>3053</v>
+        <v>2927</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>2927</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,77 +6139,77 @@
       <c r="AD29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AE29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF29" s="16" t="n">
+      <c r="AE29" s="16" t="n">
         <v>353</v>
       </c>
-      <c r="AG29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH29" s="16" t="n">
+      <c r="AF29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG29" s="16" t="n">
         <v>236</v>
       </c>
-      <c r="AI29" s="16" t="s">
-        <v>58</v>
+      <c r="AH29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" s="16" t="n">
+        <v>299</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="AO29" s="16" t="n">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="AP29" s="16" t="n">
-        <v>463</v>
+        <v>206</v>
       </c>
       <c r="AQ29" s="16" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="16" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AV29" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW29" s="16" t="n">
+        <v>216</v>
+      </c>
+      <c r="AX29" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AY29" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="AW29" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX29" s="16" t="n">
-        <v>216</v>
-      </c>
-      <c r="AY29" s="16" t="n">
-        <v>57</v>
-      </c>
       <c r="AZ29" s="16" t="n">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>82</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,59 +6298,59 @@
       <c r="AD30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE30" s="13" t="s">
-        <v>58</v>
+      <c r="AE30" s="13" t="n">
+        <v>117</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="13" t="n">
         <v>0</v>
@@ -6359,16 +6359,16 @@
         <v>0</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>65</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,20 +6469,20 @@
       <c r="AH31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI31" s="16" t="s">
-        <v>58</v>
+      <c r="AI31" s="16" t="n">
+        <v>20</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="16" t="n">
         <v>0</v>
@@ -6490,8 +6490,8 @@
       <c r="AO31" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP31" s="16" t="n">
-        <v>0</v>
+      <c r="AP31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ31" s="16" t="s">
         <v>58</v>
@@ -6505,8 +6505,8 @@
       <c r="AT31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU31" s="16" t="s">
-        <v>58</v>
+      <c r="AU31" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AV31" s="16" t="n">
         <v>0</v>
@@ -6613,80 +6613,80 @@
       <c r="AC32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD32" s="13" t="s">
-        <v>58</v>
+      <c r="AD32" s="13" t="n">
+        <v>2180</v>
       </c>
       <c r="AE32" s="13" t="n">
-        <v>2180</v>
+        <v>3429</v>
       </c>
       <c r="AF32" s="13" t="n">
-        <v>3429</v>
+        <v>3261</v>
       </c>
       <c r="AG32" s="13" t="n">
-        <v>3261</v>
+        <v>2203</v>
       </c>
       <c r="AH32" s="13" t="n">
-        <v>2203</v>
+        <v>6567</v>
       </c>
       <c r="AI32" s="13" t="n">
-        <v>6567</v>
+        <v>3752</v>
       </c>
       <c r="AJ32" s="13" t="n">
-        <v>3752</v>
+        <v>2936</v>
       </c>
       <c r="AK32" s="13" t="n">
-        <v>2936</v>
+        <v>9315</v>
       </c>
       <c r="AL32" s="13" t="n">
-        <v>9315</v>
+        <v>13244</v>
       </c>
       <c r="AM32" s="13" t="n">
-        <v>13244</v>
+        <v>3804</v>
       </c>
       <c r="AN32" s="13" t="n">
-        <v>3804</v>
+        <v>7561</v>
       </c>
       <c r="AO32" s="13" t="n">
-        <v>7561</v>
+        <v>3043</v>
       </c>
       <c r="AP32" s="13" t="n">
-        <v>3043</v>
+        <v>6490</v>
       </c>
       <c r="AQ32" s="13" t="n">
-        <v>6490</v>
+        <v>7320</v>
       </c>
       <c r="AR32" s="13" t="n">
-        <v>7320</v>
+        <v>9190</v>
       </c>
       <c r="AS32" s="13" t="n">
-        <v>9190</v>
+        <v>2827</v>
       </c>
       <c r="AT32" s="13" t="n">
-        <v>2827</v>
+        <v>4716</v>
       </c>
       <c r="AU32" s="13" t="n">
-        <v>4716</v>
+        <v>6615</v>
       </c>
       <c r="AV32" s="13" t="n">
-        <v>6615</v>
+        <v>5306</v>
       </c>
       <c r="AW32" s="13" t="n">
-        <v>5306</v>
+        <v>7166</v>
       </c>
       <c r="AX32" s="13" t="n">
-        <v>7166</v>
+        <v>1671</v>
       </c>
       <c r="AY32" s="13" t="n">
-        <v>1671</v>
+        <v>7123</v>
       </c>
       <c r="AZ32" s="13" t="n">
-        <v>7123</v>
+        <v>4156</v>
       </c>
       <c r="BA32" s="13" t="n">
-        <v>4156</v>
+        <v>7859</v>
       </c>
       <c r="BB32" s="13" t="n">
-        <v>7859</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6744,106 +6744,106 @@
         <v>0</v>
       </c>
       <c r="U33" s="18" t="n">
-        <v>0</v>
+        <v>17208</v>
       </c>
       <c r="V33" s="18" t="n">
-        <v>17208</v>
+        <v>19044</v>
       </c>
       <c r="W33" s="18" t="n">
-        <v>19044</v>
+        <v>15722</v>
       </c>
       <c r="X33" s="18" t="n">
-        <v>15722</v>
+        <v>25996</v>
       </c>
       <c r="Y33" s="18" t="n">
-        <v>25996</v>
+        <v>15854</v>
       </c>
       <c r="Z33" s="18" t="n">
-        <v>15854</v>
+        <v>29512</v>
       </c>
       <c r="AA33" s="18" t="n">
-        <v>29512</v>
+        <v>24316</v>
       </c>
       <c r="AB33" s="18" t="n">
-        <v>24316</v>
+        <v>8606</v>
       </c>
       <c r="AC33" s="18" t="n">
-        <v>8606</v>
+        <v>23203</v>
       </c>
       <c r="AD33" s="18" t="n">
-        <v>23203</v>
+        <v>6054</v>
       </c>
       <c r="AE33" s="18" t="n">
-        <v>6054</v>
+        <v>21130</v>
       </c>
       <c r="AF33" s="18" t="n">
-        <v>21130</v>
+        <v>9327</v>
       </c>
       <c r="AG33" s="18" t="n">
-        <v>9327</v>
+        <v>8765</v>
       </c>
       <c r="AH33" s="18" t="n">
-        <v>8765</v>
+        <v>9593</v>
       </c>
       <c r="AI33" s="18" t="n">
-        <v>9593</v>
+        <v>10478</v>
       </c>
       <c r="AJ33" s="18" t="n">
-        <v>10478</v>
+        <v>5640</v>
       </c>
       <c r="AK33" s="18" t="n">
-        <v>5640</v>
+        <v>30238</v>
       </c>
       <c r="AL33" s="18" t="n">
-        <v>30238</v>
+        <v>18963</v>
       </c>
       <c r="AM33" s="18" t="n">
-        <v>18963</v>
+        <v>6929</v>
       </c>
       <c r="AN33" s="18" t="n">
-        <v>6929</v>
+        <v>27403</v>
       </c>
       <c r="AO33" s="18" t="n">
-        <v>27403</v>
+        <v>6600</v>
       </c>
       <c r="AP33" s="18" t="n">
-        <v>6600</v>
+        <v>17364</v>
       </c>
       <c r="AQ33" s="18" t="n">
-        <v>17364</v>
+        <v>22588</v>
       </c>
       <c r="AR33" s="18" t="n">
-        <v>22588</v>
+        <v>20521</v>
       </c>
       <c r="AS33" s="18" t="n">
-        <v>20521</v>
+        <v>20167</v>
       </c>
       <c r="AT33" s="18" t="n">
-        <v>20167</v>
+        <v>8575</v>
       </c>
       <c r="AU33" s="18" t="n">
-        <v>8575</v>
+        <v>14646</v>
       </c>
       <c r="AV33" s="18" t="n">
-        <v>14646</v>
+        <v>12433</v>
       </c>
       <c r="AW33" s="18" t="n">
-        <v>12433</v>
+        <v>16763</v>
       </c>
       <c r="AX33" s="18" t="n">
-        <v>16763</v>
+        <v>11753</v>
       </c>
       <c r="AY33" s="18" t="n">
-        <v>11753</v>
+        <v>12654</v>
       </c>
       <c r="AZ33" s="18" t="n">
-        <v>12654</v>
+        <v>10149</v>
       </c>
       <c r="BA33" s="18" t="n">
-        <v>10149</v>
+        <v>10933</v>
       </c>
       <c r="BB33" s="18" t="n">
-        <v>10933</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,8 +6957,8 @@
       <c r="T35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="22" t="s">
-        <v>58</v>
+      <c r="U35" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="22" t="n">
         <v>0</v>
@@ -7115,106 +7115,106 @@
         <v>0</v>
       </c>
       <c r="U36" s="18" t="n">
-        <v>0</v>
+        <v>45895</v>
       </c>
       <c r="V36" s="18" t="n">
-        <v>45895</v>
+        <v>48147</v>
       </c>
       <c r="W36" s="18" t="n">
-        <v>48147</v>
+        <v>53542</v>
       </c>
       <c r="X36" s="18" t="n">
-        <v>53542</v>
+        <v>44985</v>
       </c>
       <c r="Y36" s="18" t="n">
-        <v>44985</v>
+        <v>46032</v>
       </c>
       <c r="Z36" s="18" t="n">
-        <v>46032</v>
+        <v>58961</v>
       </c>
       <c r="AA36" s="18" t="n">
-        <v>58961</v>
+        <v>47059</v>
       </c>
       <c r="AB36" s="18" t="n">
-        <v>47059</v>
+        <v>41047</v>
       </c>
       <c r="AC36" s="18" t="n">
-        <v>41047</v>
+        <v>59493</v>
       </c>
       <c r="AD36" s="18" t="n">
-        <v>59493</v>
+        <v>37874</v>
       </c>
       <c r="AE36" s="18" t="n">
-        <v>37874</v>
+        <v>57915</v>
       </c>
       <c r="AF36" s="18" t="n">
-        <v>57915</v>
+        <v>40075</v>
       </c>
       <c r="AG36" s="18" t="n">
-        <v>40075</v>
+        <v>37481</v>
       </c>
       <c r="AH36" s="18" t="n">
-        <v>37481</v>
+        <v>42014</v>
       </c>
       <c r="AI36" s="18" t="n">
-        <v>42014</v>
+        <v>62658</v>
       </c>
       <c r="AJ36" s="18" t="n">
-        <v>62658</v>
+        <v>37443</v>
       </c>
       <c r="AK36" s="18" t="n">
-        <v>37443</v>
+        <v>65849</v>
       </c>
       <c r="AL36" s="18" t="n">
-        <v>65849</v>
+        <v>56167</v>
       </c>
       <c r="AM36" s="18" t="n">
-        <v>56167</v>
+        <v>43588</v>
       </c>
       <c r="AN36" s="18" t="n">
-        <v>43588</v>
+        <v>57529</v>
       </c>
       <c r="AO36" s="18" t="n">
-        <v>57529</v>
+        <v>34198</v>
       </c>
       <c r="AP36" s="18" t="n">
-        <v>34198</v>
+        <v>46602</v>
       </c>
       <c r="AQ36" s="18" t="n">
-        <v>46602</v>
+        <v>60089</v>
       </c>
       <c r="AR36" s="18" t="n">
-        <v>60089</v>
+        <v>48576</v>
       </c>
       <c r="AS36" s="18" t="n">
-        <v>48576</v>
+        <v>50753</v>
       </c>
       <c r="AT36" s="18" t="n">
-        <v>50753</v>
+        <v>53796</v>
       </c>
       <c r="AU36" s="18" t="n">
-        <v>53796</v>
+        <v>51708</v>
       </c>
       <c r="AV36" s="18" t="n">
-        <v>51708</v>
+        <v>47427</v>
       </c>
       <c r="AW36" s="18" t="n">
-        <v>47427</v>
+        <v>49805</v>
       </c>
       <c r="AX36" s="18" t="n">
-        <v>49805</v>
+        <v>49710</v>
       </c>
       <c r="AY36" s="18" t="n">
-        <v>49710</v>
+        <v>50501</v>
       </c>
       <c r="AZ36" s="18" t="n">
-        <v>50501</v>
+        <v>47441</v>
       </c>
       <c r="BA36" s="18" t="n">
-        <v>47441</v>
+        <v>43126</v>
       </c>
       <c r="BB36" s="18" t="n">
-        <v>43126</v>
+        <v>29383</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7734,80 +7734,80 @@
       <c r="AC43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD43" s="13" t="s">
-        <v>58</v>
+      <c r="AD43" s="13" t="n">
+        <v>10822</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>10822</v>
+        <v>13099</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>13099</v>
+        <v>7697</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>7697</v>
+        <v>7390</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>7390</v>
+        <v>9096</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>9096</v>
+        <v>13232</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>13232</v>
+        <v>6668</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>6668</v>
+        <v>6575</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>6575</v>
+        <v>8476</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>8476</v>
+        <v>7208</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>7208</v>
+        <v>6123</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>6123</v>
+        <v>13944</v>
       </c>
       <c r="AP43" s="13" t="n">
-        <v>13944</v>
+        <v>8056</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>8056</v>
+        <v>11939</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>11939</v>
+        <v>7146</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>7146</v>
+        <v>4914</v>
       </c>
       <c r="AT43" s="13" t="n">
+        <v>11626</v>
+      </c>
+      <c r="AU43" s="13" t="n">
+        <v>9591</v>
+      </c>
+      <c r="AV43" s="13" t="n">
+        <v>10473</v>
+      </c>
+      <c r="AW43" s="13" t="n">
+        <v>6997</v>
+      </c>
+      <c r="AX43" s="13" t="n">
         <v>4914</v>
       </c>
-      <c r="AU43" s="13" t="n">
-        <v>11626</v>
-      </c>
-      <c r="AV43" s="13" t="n">
-        <v>9591</v>
-      </c>
-      <c r="AW43" s="13" t="n">
-        <v>10473</v>
-      </c>
-      <c r="AX43" s="13" t="n">
-        <v>6997</v>
-      </c>
       <c r="AY43" s="13" t="n">
-        <v>4914</v>
+        <v>6985</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>6985</v>
+        <v>6866</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>6866</v>
+        <v>7890</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>7890</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7866,107 +7866,107 @@
       <c r="T44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>58</v>
+      <c r="U44" s="16" t="n">
+        <v>20</v>
       </c>
       <c r="V44" s="16" t="n">
+        <v>310</v>
+      </c>
+      <c r="W44" s="16" t="n">
+        <v>482</v>
+      </c>
+      <c r="X44" s="16" t="n">
+        <v>335</v>
+      </c>
+      <c r="Y44" s="16" t="n">
+        <v>104</v>
+      </c>
+      <c r="Z44" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA44" s="16" t="n">
+        <v>154</v>
+      </c>
+      <c r="AB44" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="W44" s="16" t="n">
-        <v>310</v>
-      </c>
-      <c r="X44" s="16" t="n">
-        <v>482</v>
-      </c>
-      <c r="Y44" s="16" t="n">
-        <v>335</v>
-      </c>
-      <c r="Z44" s="16" t="n">
-        <v>104</v>
-      </c>
-      <c r="AA44" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB44" s="16" t="n">
-        <v>154</v>
-      </c>
       <c r="AC44" s="16" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AD44" s="16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE44" s="16" t="n">
         <v>4</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG44" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH44" s="16" t="n">
+        <v>137</v>
+      </c>
+      <c r="AI44" s="16" t="n">
+        <v>921</v>
+      </c>
+      <c r="AJ44" s="16" t="n">
+        <v>213</v>
+      </c>
+      <c r="AK44" s="16" t="n">
+        <v>325</v>
+      </c>
+      <c r="AL44" s="16" t="n">
+        <v>74</v>
+      </c>
+      <c r="AM44" s="16" t="n">
+        <v>181</v>
+      </c>
+      <c r="AN44" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO44" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AH44" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI44" s="16" t="n">
-        <v>137</v>
-      </c>
-      <c r="AJ44" s="16" t="n">
-        <v>921</v>
-      </c>
-      <c r="AK44" s="16" t="n">
-        <v>213</v>
-      </c>
-      <c r="AL44" s="16" t="n">
-        <v>325</v>
-      </c>
-      <c r="AM44" s="16" t="n">
-        <v>74</v>
-      </c>
-      <c r="AN44" s="16" t="n">
-        <v>181</v>
-      </c>
-      <c r="AO44" s="16" t="n">
-        <v>20</v>
-      </c>
       <c r="AP44" s="16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AY44" s="16" t="n">
         <v>80</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8025,35 +8025,35 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>29734</v>
       </c>
       <c r="V45" s="13" t="n">
-        <v>29734</v>
+        <v>24512</v>
       </c>
       <c r="W45" s="13" t="n">
-        <v>24512</v>
+        <v>33765</v>
       </c>
       <c r="X45" s="13" t="n">
-        <v>33765</v>
+        <v>16264</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>16264</v>
+        <v>25173</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>25173</v>
+        <v>28858</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>28858</v>
+        <v>21814</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>21814</v>
+        <v>27596</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>27596</v>
-      </c>
-      <c r="AD45" s="13" t="n">
         <v>34243</v>
+      </c>
+      <c r="AD45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE45" s="13" t="s">
         <v>58</v>
@@ -8184,35 +8184,35 @@
       <c r="T46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="16" t="s">
-        <v>58</v>
+      <c r="U46" s="16" t="n">
+        <v>4011</v>
       </c>
       <c r="V46" s="16" t="n">
-        <v>4011</v>
+        <v>4811</v>
       </c>
       <c r="W46" s="16" t="n">
-        <v>4811</v>
+        <v>6412</v>
       </c>
       <c r="X46" s="16" t="n">
-        <v>6412</v>
+        <v>3606</v>
       </c>
       <c r="Y46" s="16" t="n">
-        <v>3606</v>
+        <v>3941</v>
       </c>
       <c r="Z46" s="16" t="n">
-        <v>3941</v>
+        <v>3206</v>
       </c>
       <c r="AA46" s="16" t="n">
-        <v>3206</v>
+        <v>2809</v>
       </c>
       <c r="AB46" s="16" t="n">
-        <v>2809</v>
+        <v>2493</v>
       </c>
       <c r="AC46" s="16" t="n">
-        <v>2493</v>
-      </c>
-      <c r="AD46" s="16" t="n">
         <v>4709</v>
+      </c>
+      <c r="AD46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE46" s="16" t="s">
         <v>58</v>
@@ -8370,80 +8370,80 @@
       <c r="AC47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD47" s="13" t="s">
-        <v>58</v>
+      <c r="AD47" s="13" t="n">
+        <v>2029</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>2029</v>
+        <v>1822</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>1822</v>
+        <v>1268</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>1268</v>
+        <v>6652</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>6652</v>
+        <v>2126</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>2126</v>
+        <v>11599</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>11599</v>
+        <v>4298</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>4298</v>
+        <v>5296</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>5296</v>
+        <v>4842</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>4842</v>
+        <v>4063</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>4063</v>
+        <v>3662</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>3662</v>
+        <v>4352</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>4352</v>
+        <v>2127</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>2127</v>
+        <v>4501</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>4501</v>
+        <v>4271</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>4271</v>
+        <v>5064</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>5064</v>
+        <v>6229</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>6229</v>
+        <v>8894</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>8894</v>
+        <v>4762</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>4762</v>
+        <v>4427</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>4427</v>
+        <v>4489</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>4489</v>
+        <v>4507</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>4507</v>
+        <v>5170</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>5170</v>
+        <v>5110</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>5110</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8502,107 +8502,107 @@
       <c r="T48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="16" t="s">
-        <v>58</v>
+      <c r="U48" s="16" t="n">
+        <v>71</v>
       </c>
       <c r="V48" s="16" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="W48" s="16" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="X48" s="16" t="n">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Y48" s="16" t="n">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="Z48" s="16" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="AA48" s="16" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="AB48" s="16" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="AC48" s="16" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AD48" s="16" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="AE48" s="16" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="AF48" s="16" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AG48" s="16" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AH48" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI48" s="16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ48" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK48" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="AI48" s="16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ48" s="16" t="n">
+      <c r="AL48" s="16" t="n">
+        <v>149</v>
+      </c>
+      <c r="AM48" s="16" t="n">
+        <v>143</v>
+      </c>
+      <c r="AN48" s="16" t="n">
+        <v>181</v>
+      </c>
+      <c r="AO48" s="16" t="n">
+        <v>109</v>
+      </c>
+      <c r="AP48" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ48" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AR48" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS48" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT48" s="16" t="n">
+        <v>189</v>
+      </c>
+      <c r="AU48" s="16" t="n">
+        <v>155</v>
+      </c>
+      <c r="AV48" s="16" t="n">
+        <v>177</v>
+      </c>
+      <c r="AW48" s="16" t="n">
+        <v>318</v>
+      </c>
+      <c r="AX48" s="16" t="n">
+        <v>333</v>
+      </c>
+      <c r="AY48" s="16" t="n">
+        <v>222</v>
+      </c>
+      <c r="AZ48" s="16" t="n">
+        <v>118</v>
+      </c>
+      <c r="BA48" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="AK48" s="16" t="n">
+      <c r="BB48" s="16" t="n">
         <v>34</v>
-      </c>
-      <c r="AL48" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM48" s="16" t="n">
-        <v>149</v>
-      </c>
-      <c r="AN48" s="16" t="n">
-        <v>143</v>
-      </c>
-      <c r="AO48" s="16" t="n">
-        <v>181</v>
-      </c>
-      <c r="AP48" s="16" t="n">
-        <v>109</v>
-      </c>
-      <c r="AQ48" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR48" s="16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AS48" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AT48" s="16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AU48" s="16" t="n">
-        <v>189</v>
-      </c>
-      <c r="AV48" s="16" t="n">
-        <v>155</v>
-      </c>
-      <c r="AW48" s="16" t="n">
-        <v>177</v>
-      </c>
-      <c r="AX48" s="16" t="n">
-        <v>318</v>
-      </c>
-      <c r="AY48" s="16" t="n">
-        <v>333</v>
-      </c>
-      <c r="AZ48" s="16" t="n">
-        <v>222</v>
-      </c>
-      <c r="BA48" s="16" t="n">
-        <v>118</v>
-      </c>
-      <c r="BB48" s="16" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8688,80 +8688,80 @@
       <c r="AC49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD49" s="13" t="s">
-        <v>58</v>
+      <c r="AD49" s="13" t="n">
+        <v>1414</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>1414</v>
+        <v>2653</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>2653</v>
+        <v>1918</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>1918</v>
+        <v>1219</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>1219</v>
+        <v>2387</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>2387</v>
+        <v>3730</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>3730</v>
+        <v>3038</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>3038</v>
+        <v>2470</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>2470</v>
+        <v>2826</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>2826</v>
+        <v>2534</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>2534</v>
+        <v>1722</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>1722</v>
+        <v>1391</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>1391</v>
+        <v>1008</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>1008</v>
+        <v>2045</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>2045</v>
+        <v>1284</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>1284</v>
+        <v>1399</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>1399</v>
+        <v>2476</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>2476</v>
+        <v>1780</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>1780</v>
+        <v>811</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>811</v>
+        <v>1340</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>1340</v>
+        <v>2877</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>2877</v>
+        <v>2794</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>2794</v>
+        <v>2492</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>2492</v>
+        <v>2104</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>2104</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,80 +8847,80 @@
       <c r="AC50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD50" s="16" t="s">
-        <v>58</v>
+      <c r="AD50" s="16" t="n">
+        <v>1973</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>1973</v>
+        <v>3023</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>3023</v>
+        <v>3225</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>3225</v>
+        <v>5092</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>5092</v>
+        <v>5190</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>5190</v>
+        <v>7563</v>
       </c>
       <c r="AJ50" s="16" t="n">
-        <v>7563</v>
+        <v>4796</v>
       </c>
       <c r="AK50" s="16" t="n">
-        <v>4796</v>
+        <v>4811</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>4811</v>
+        <v>4415</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>4415</v>
+        <v>4781</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>4781</v>
+        <v>3408</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>3408</v>
+        <v>4149</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>4149</v>
+        <v>1168</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>1168</v>
+        <v>2682</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>2682</v>
+        <v>2860</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>2860</v>
+        <v>6161</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>6161</v>
+        <v>6563</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>6563</v>
+        <v>5856</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>5856</v>
+        <v>4870</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>4870</v>
+        <v>6568</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>6568</v>
+        <v>5719</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>5719</v>
+        <v>5546</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>5546</v>
+        <v>7034</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>7034</v>
+        <v>5760</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>5760</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,80 +9006,80 @@
       <c r="AC51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD51" s="13" t="s">
-        <v>58</v>
+      <c r="AD51" s="13" t="n">
+        <v>2015</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>2015</v>
+        <v>3680</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>3680</v>
+        <v>3125</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>3125</v>
+        <v>3163</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>3163</v>
+        <v>2906</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>2906</v>
+        <v>4949</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>4949</v>
+        <v>4294</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>4294</v>
+        <v>4006</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>4006</v>
+        <v>4120</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>4120</v>
+        <v>4015</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>4015</v>
+        <v>3064</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>3064</v>
+        <v>4259</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>4259</v>
+        <v>2013</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>2013</v>
+        <v>3184</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>3184</v>
+        <v>4718</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>4718</v>
+        <v>4111</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>4111</v>
+        <v>4074</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>4074</v>
+        <v>4380</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>4380</v>
+        <v>3876</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>3876</v>
+        <v>4268</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>4268</v>
+        <v>4856</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>4856</v>
+        <v>5123</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>5123</v>
+        <v>5064</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>5064</v>
+        <v>3950</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>3950</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9165,80 +9165,80 @@
       <c r="AC52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD52" s="16" t="s">
-        <v>58</v>
+      <c r="AD52" s="16" t="n">
+        <v>1358</v>
       </c>
       <c r="AE52" s="16" t="n">
-        <v>1358</v>
+        <v>2064</v>
       </c>
       <c r="AF52" s="16" t="n">
-        <v>2064</v>
+        <v>1856</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>1856</v>
+        <v>1811</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>1811</v>
+        <v>1592</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>1592</v>
+        <v>2643</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>2643</v>
+        <v>1680</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>1680</v>
+        <v>2345</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>2345</v>
+        <v>2556</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>2550</v>
+        <v>2379</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>2379</v>
+        <v>2672</v>
       </c>
       <c r="AP52" s="16" t="n">
-        <v>2672</v>
+        <v>1435</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>1435</v>
+        <v>2797</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>2797</v>
+        <v>2578</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>2578</v>
+        <v>2413</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>2413</v>
+        <v>2131</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>2131</v>
+        <v>2153</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>2153</v>
+        <v>1997</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>1997</v>
+        <v>1843</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>1843</v>
+        <v>2656</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>2656</v>
+        <v>2358</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>2358</v>
+        <v>2786</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>2786</v>
+        <v>3199</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>3199</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9324,80 +9324,80 @@
       <c r="AC53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD53" s="13" t="s">
-        <v>58</v>
+      <c r="AD53" s="13" t="n">
+        <v>11273</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>11273</v>
+        <v>8770</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>8770</v>
+        <v>9849</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>9849</v>
+        <v>6364</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>6364</v>
+        <v>7835</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>7835</v>
+        <v>7698</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>7698</v>
+        <v>6799</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>6799</v>
+        <v>9147</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>9147</v>
+        <v>8682</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>8682</v>
+        <v>10994</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>10994</v>
+        <v>8909</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>8909</v>
+        <v>7053</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>7053</v>
+        <v>9462</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>9462</v>
+        <v>9032</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>9032</v>
+        <v>8931</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>8931</v>
+        <v>6109</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>6109</v>
+        <v>10913</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>10913</v>
+        <v>6917</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>6917</v>
+        <v>7273</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>7273</v>
+        <v>7499</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>7499</v>
+        <v>11602</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>11602</v>
+        <v>8247</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>8247</v>
+        <v>8127</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>8127</v>
+        <v>6195</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>6195</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9455,106 +9455,106 @@
         <v>0</v>
       </c>
       <c r="U54" s="18" t="n">
-        <v>0</v>
+        <v>33836</v>
       </c>
       <c r="V54" s="18" t="n">
-        <v>33836</v>
+        <v>29775</v>
       </c>
       <c r="W54" s="18" t="n">
-        <v>29775</v>
+        <v>40810</v>
       </c>
       <c r="X54" s="18" t="n">
-        <v>40810</v>
+        <v>20375</v>
       </c>
       <c r="Y54" s="18" t="n">
-        <v>20375</v>
+        <v>29319</v>
       </c>
       <c r="Z54" s="18" t="n">
-        <v>29319</v>
+        <v>32160</v>
       </c>
       <c r="AA54" s="18" t="n">
-        <v>32160</v>
+        <v>24846</v>
       </c>
       <c r="AB54" s="18" t="n">
-        <v>24846</v>
+        <v>30207</v>
       </c>
       <c r="AC54" s="18" t="n">
-        <v>30207</v>
+        <v>39046</v>
       </c>
       <c r="AD54" s="18" t="n">
-        <v>39046</v>
+        <v>30931</v>
       </c>
       <c r="AE54" s="18" t="n">
-        <v>30931</v>
+        <v>35129</v>
       </c>
       <c r="AF54" s="18" t="n">
-        <v>35129</v>
+        <v>28973</v>
       </c>
       <c r="AG54" s="18" t="n">
-        <v>28973</v>
+        <v>31741</v>
       </c>
       <c r="AH54" s="18" t="n">
-        <v>31741</v>
+        <v>31329</v>
       </c>
       <c r="AI54" s="18" t="n">
-        <v>31329</v>
+        <v>52383</v>
       </c>
       <c r="AJ54" s="18" t="n">
-        <v>52383</v>
+        <v>31820</v>
       </c>
       <c r="AK54" s="18" t="n">
-        <v>31820</v>
+        <v>34999</v>
       </c>
       <c r="AL54" s="18" t="n">
-        <v>34999</v>
+        <v>36140</v>
       </c>
       <c r="AM54" s="18" t="n">
-        <v>36140</v>
+        <v>36469</v>
       </c>
       <c r="AN54" s="18" t="n">
-        <v>36469</v>
+        <v>29468</v>
       </c>
       <c r="AO54" s="18" t="n">
-        <v>29468</v>
+        <v>37934</v>
       </c>
       <c r="AP54" s="18" t="n">
-        <v>37934</v>
+        <v>25296</v>
       </c>
       <c r="AQ54" s="18" t="n">
-        <v>25296</v>
+        <v>36261</v>
       </c>
       <c r="AR54" s="18" t="n">
-        <v>36261</v>
+        <v>31844</v>
       </c>
       <c r="AS54" s="18" t="n">
-        <v>31844</v>
+        <v>30213</v>
       </c>
       <c r="AT54" s="18" t="n">
-        <v>30213</v>
+        <v>44370</v>
       </c>
       <c r="AU54" s="18" t="n">
-        <v>44370</v>
+        <v>40135</v>
       </c>
       <c r="AV54" s="18" t="n">
-        <v>40135</v>
+        <v>34535</v>
       </c>
       <c r="AW54" s="18" t="n">
-        <v>34535</v>
+        <v>33739</v>
       </c>
       <c r="AX54" s="18" t="n">
-        <v>33739</v>
+        <v>37526</v>
       </c>
       <c r="AY54" s="18" t="n">
-        <v>37526</v>
+        <v>35862</v>
       </c>
       <c r="AZ54" s="18" t="n">
-        <v>35862</v>
+        <v>37668</v>
       </c>
       <c r="BA54" s="18" t="n">
-        <v>37668</v>
+        <v>34262</v>
       </c>
       <c r="BB54" s="18" t="n">
-        <v>34262</v>
+        <v>23440</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9703,17 +9703,17 @@
       <c r="AE56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG56" s="13" t="n">
+      <c r="AF56" s="13" t="n">
         <v>1072</v>
       </c>
+      <c r="AG56" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI56" s="13" t="s">
-        <v>58</v>
+      <c r="AI56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ56" s="13" t="n">
         <v>0</v>
@@ -9725,25 +9725,25 @@
         <v>0</v>
       </c>
       <c r="AM56" s="13" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AN56" s="13" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP56" s="13" t="n">
-        <v>0</v>
+      <c r="AP56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="13" t="s">
-        <v>58</v>
+      <c r="AR56" s="13" t="n">
+        <v>104</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="13" t="n">
         <v>0</v>
@@ -9764,10 +9764,10 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="13" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="13" t="n">
         <v>0</v>
@@ -9829,35 +9829,35 @@
       <c r="T57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>58</v>
+      <c r="U57" s="16" t="n">
+        <v>14063</v>
       </c>
       <c r="V57" s="16" t="n">
-        <v>14063</v>
+        <v>13807</v>
       </c>
       <c r="W57" s="16" t="n">
-        <v>13807</v>
+        <v>13660</v>
       </c>
       <c r="X57" s="16" t="n">
-        <v>13660</v>
+        <v>24523</v>
       </c>
       <c r="Y57" s="16" t="n">
-        <v>24523</v>
+        <v>14827</v>
       </c>
       <c r="Z57" s="16" t="n">
-        <v>14827</v>
+        <v>26288</v>
       </c>
       <c r="AA57" s="16" t="n">
-        <v>26288</v>
+        <v>21804</v>
       </c>
       <c r="AB57" s="16" t="n">
-        <v>21804</v>
+        <v>6654</v>
       </c>
       <c r="AC57" s="16" t="n">
-        <v>6654</v>
-      </c>
-      <c r="AD57" s="16" t="n">
         <v>20879</v>
+      </c>
+      <c r="AD57" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE57" s="16" t="s">
         <v>58</v>
@@ -9988,35 +9988,35 @@
       <c r="T58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="13" t="s">
-        <v>58</v>
+      <c r="U58" s="13" t="n">
+        <v>3145</v>
       </c>
       <c r="V58" s="13" t="n">
-        <v>3145</v>
+        <v>5237</v>
       </c>
       <c r="W58" s="13" t="n">
-        <v>5237</v>
+        <v>2062</v>
       </c>
       <c r="X58" s="13" t="n">
-        <v>2062</v>
+        <v>1473</v>
       </c>
       <c r="Y58" s="13" t="n">
-        <v>1473</v>
+        <v>1027</v>
       </c>
       <c r="Z58" s="13" t="n">
-        <v>1027</v>
+        <v>3224</v>
       </c>
       <c r="AA58" s="13" t="n">
-        <v>3224</v>
+        <v>2512</v>
       </c>
       <c r="AB58" s="13" t="n">
-        <v>2512</v>
+        <v>1952</v>
       </c>
       <c r="AC58" s="13" t="n">
-        <v>1952</v>
-      </c>
-      <c r="AD58" s="13" t="n">
         <v>2324</v>
+      </c>
+      <c r="AD58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE58" s="13" t="s">
         <v>58</v>
@@ -10174,77 +10174,77 @@
       <c r="AC59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD59" s="16" t="s">
-        <v>58</v>
+      <c r="AD59" s="16" t="n">
+        <v>352</v>
       </c>
       <c r="AE59" s="16" t="n">
-        <v>352</v>
+        <v>14230</v>
       </c>
       <c r="AF59" s="16" t="n">
-        <v>14230</v>
+        <v>2590</v>
       </c>
       <c r="AG59" s="16" t="n">
-        <v>2590</v>
-      </c>
-      <c r="AH59" s="16" t="n">
         <v>3433</v>
       </c>
-      <c r="AI59" s="16" t="s">
-        <v>58</v>
+      <c r="AH59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI59" s="16" t="n">
+        <v>2249</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>2249</v>
+        <v>449</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>449</v>
+        <v>15311</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>15311</v>
+        <v>2436</v>
       </c>
       <c r="AM59" s="16" t="n">
-        <v>2436</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="16" t="n">
-        <v>0</v>
+        <v>13799</v>
       </c>
       <c r="AO59" s="16" t="n">
-        <v>13799</v>
+        <v>0</v>
       </c>
       <c r="AP59" s="16" t="n">
-        <v>0</v>
+        <v>6034</v>
       </c>
       <c r="AQ59" s="16" t="n">
-        <v>6034</v>
+        <v>9999</v>
       </c>
       <c r="AR59" s="16" t="n">
-        <v>9999</v>
+        <v>7055</v>
       </c>
       <c r="AS59" s="16" t="n">
-        <v>7055</v>
+        <v>14687</v>
       </c>
       <c r="AT59" s="16" t="n">
-        <v>14687</v>
+        <v>850</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>850</v>
+        <v>3460</v>
       </c>
       <c r="AV59" s="16" t="n">
-        <v>3460</v>
+        <v>2181</v>
       </c>
       <c r="AW59" s="16" t="n">
-        <v>2181</v>
+        <v>3655</v>
       </c>
       <c r="AX59" s="16" t="n">
-        <v>3655</v>
+        <v>7168</v>
       </c>
       <c r="AY59" s="16" t="n">
-        <v>7168</v>
+        <v>3340</v>
       </c>
       <c r="AZ59" s="16" t="n">
-        <v>3340</v>
+        <v>2683</v>
       </c>
       <c r="BA59" s="16" t="n">
-        <v>2683</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="16" t="n">
         <v>0</v>
@@ -10333,80 +10333,80 @@
       <c r="AC60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="13" t="s">
-        <v>58</v>
+      <c r="AD60" s="13" t="n">
+        <v>3522</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>3522</v>
+        <v>3001</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>3001</v>
+        <v>2321</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>2321</v>
+        <v>2796</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>2796</v>
+        <v>2926</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>2926</v>
+        <v>3843</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>3843</v>
+        <v>2005</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>2005</v>
+        <v>4704</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>4704</v>
+        <v>2806</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>2806</v>
+        <v>2645</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>2645</v>
+        <v>5181</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>5181</v>
+        <v>3648</v>
       </c>
       <c r="AP60" s="13" t="n">
-        <v>3648</v>
+        <v>4374</v>
       </c>
       <c r="AQ60" s="13" t="n">
-        <v>4374</v>
+        <v>5269</v>
       </c>
       <c r="AR60" s="13" t="n">
-        <v>5269</v>
+        <v>3800</v>
       </c>
       <c r="AS60" s="13" t="n">
-        <v>3800</v>
+        <v>2653</v>
       </c>
       <c r="AT60" s="13" t="n">
-        <v>2653</v>
+        <v>2835</v>
       </c>
       <c r="AU60" s="13" t="n">
-        <v>2835</v>
+        <v>4490</v>
       </c>
       <c r="AV60" s="13" t="n">
-        <v>4490</v>
+        <v>4925</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>4925</v>
+        <v>5726</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>5726</v>
+        <v>2857</v>
       </c>
       <c r="AY60" s="13" t="n">
-        <v>2857</v>
+        <v>2124</v>
       </c>
       <c r="AZ60" s="13" t="n">
-        <v>2124</v>
+        <v>3053</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>3053</v>
+        <v>2927</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>2927</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10495,77 +10495,77 @@
       <c r="AD61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AE61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF61" s="16" t="n">
+      <c r="AE61" s="16" t="n">
         <v>353</v>
       </c>
-      <c r="AG61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH61" s="16" t="n">
+      <c r="AF61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG61" s="16" t="n">
         <v>236</v>
       </c>
-      <c r="AI61" s="16" t="s">
-        <v>58</v>
+      <c r="AH61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI61" s="16" t="n">
+        <v>299</v>
       </c>
       <c r="AJ61" s="16" t="n">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="AK61" s="16" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AL61" s="16" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="AO61" s="16" t="n">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="AP61" s="16" t="n">
-        <v>463</v>
+        <v>206</v>
       </c>
       <c r="AQ61" s="16" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AV61" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW61" s="16" t="n">
+        <v>216</v>
+      </c>
+      <c r="AX61" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AY61" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="AW61" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX61" s="16" t="n">
-        <v>216</v>
-      </c>
-      <c r="AY61" s="16" t="n">
-        <v>57</v>
-      </c>
       <c r="AZ61" s="16" t="n">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="BB61" s="16" t="n">
-        <v>82</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10654,59 +10654,59 @@
       <c r="AD62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE62" s="13" t="s">
-        <v>58</v>
+      <c r="AE62" s="13" t="n">
+        <v>117</v>
       </c>
       <c r="AF62" s="13" t="n">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AG62" s="13" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AH62" s="13" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AI62" s="13" t="n">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="AJ62" s="13" t="n">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="AK62" s="13" t="n">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="AL62" s="13" t="n">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="AM62" s="13" t="n">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AN62" s="13" t="n">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AO62" s="13" t="n">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="AP62" s="13" t="n">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="AQ62" s="13" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="13" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AS62" s="13" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AU62" s="13" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AV62" s="13" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="13" t="n">
         <v>0</v>
@@ -10715,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="AY62" s="13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ62" s="13" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BB62" s="13" t="n">
-        <v>65</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10825,20 +10825,20 @@
       <c r="AH63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI63" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ63" s="16" t="n">
+      <c r="AI63" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="AK63" s="16" t="s">
-        <v>58</v>
+      <c r="AJ63" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK63" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AL63" s="16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM63" s="16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="16" t="n">
         <v>0</v>
@@ -10846,8 +10846,8 @@
       <c r="AO63" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP63" s="16" t="n">
-        <v>0</v>
+      <c r="AP63" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ63" s="16" t="s">
         <v>58</v>
@@ -10861,8 +10861,8 @@
       <c r="AT63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU63" s="16" t="s">
-        <v>58</v>
+      <c r="AU63" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AV63" s="16" t="n">
         <v>0</v>
@@ -10969,80 +10969,80 @@
       <c r="AC64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD64" s="13" t="s">
-        <v>58</v>
+      <c r="AD64" s="13" t="n">
+        <v>2180</v>
       </c>
       <c r="AE64" s="13" t="n">
-        <v>2180</v>
+        <v>3429</v>
       </c>
       <c r="AF64" s="13" t="n">
-        <v>3429</v>
+        <v>3261</v>
       </c>
       <c r="AG64" s="13" t="n">
-        <v>3261</v>
+        <v>2203</v>
       </c>
       <c r="AH64" s="13" t="n">
-        <v>2203</v>
+        <v>6567</v>
       </c>
       <c r="AI64" s="13" t="n">
-        <v>6567</v>
+        <v>3752</v>
       </c>
       <c r="AJ64" s="13" t="n">
-        <v>3752</v>
+        <v>2936</v>
       </c>
       <c r="AK64" s="13" t="n">
-        <v>2936</v>
+        <v>9315</v>
       </c>
       <c r="AL64" s="13" t="n">
-        <v>9315</v>
+        <v>13244</v>
       </c>
       <c r="AM64" s="13" t="n">
-        <v>13244</v>
+        <v>3804</v>
       </c>
       <c r="AN64" s="13" t="n">
-        <v>3804</v>
+        <v>7561</v>
       </c>
       <c r="AO64" s="13" t="n">
-        <v>7561</v>
+        <v>3607</v>
       </c>
       <c r="AP64" s="13" t="n">
-        <v>3607</v>
+        <v>6490</v>
       </c>
       <c r="AQ64" s="13" t="n">
-        <v>6490</v>
+        <v>7320</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>7320</v>
+        <v>9190</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>9190</v>
+        <v>2827</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>2827</v>
+        <v>4716</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>4716</v>
+        <v>6615</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>6615</v>
+        <v>5306</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>5306</v>
+        <v>7166</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>7166</v>
+        <v>1671</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>1671</v>
+        <v>7123</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>7123</v>
+        <v>4156</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>4156</v>
+        <v>7859</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>7859</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11100,106 +11100,106 @@
         <v>0</v>
       </c>
       <c r="U65" s="18" t="n">
-        <v>0</v>
+        <v>17208</v>
       </c>
       <c r="V65" s="18" t="n">
-        <v>17208</v>
+        <v>19044</v>
       </c>
       <c r="W65" s="18" t="n">
-        <v>19044</v>
+        <v>15722</v>
       </c>
       <c r="X65" s="18" t="n">
-        <v>15722</v>
+        <v>25996</v>
       </c>
       <c r="Y65" s="18" t="n">
-        <v>25996</v>
+        <v>15854</v>
       </c>
       <c r="Z65" s="18" t="n">
-        <v>15854</v>
+        <v>29512</v>
       </c>
       <c r="AA65" s="18" t="n">
-        <v>29512</v>
+        <v>24316</v>
       </c>
       <c r="AB65" s="18" t="n">
-        <v>24316</v>
+        <v>8606</v>
       </c>
       <c r="AC65" s="18" t="n">
-        <v>8606</v>
+        <v>23203</v>
       </c>
       <c r="AD65" s="18" t="n">
-        <v>23203</v>
+        <v>6054</v>
       </c>
       <c r="AE65" s="18" t="n">
-        <v>6054</v>
+        <v>21130</v>
       </c>
       <c r="AF65" s="18" t="n">
-        <v>21130</v>
+        <v>9327</v>
       </c>
       <c r="AG65" s="18" t="n">
-        <v>9327</v>
+        <v>8765</v>
       </c>
       <c r="AH65" s="18" t="n">
-        <v>8765</v>
+        <v>9593</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>9593</v>
+        <v>10478</v>
       </c>
       <c r="AJ65" s="18" t="n">
-        <v>10478</v>
+        <v>5640</v>
       </c>
       <c r="AK65" s="18" t="n">
-        <v>5640</v>
+        <v>29425</v>
       </c>
       <c r="AL65" s="18" t="n">
-        <v>29425</v>
+        <v>18855</v>
       </c>
       <c r="AM65" s="18" t="n">
-        <v>18855</v>
+        <v>6903</v>
       </c>
       <c r="AN65" s="18" t="n">
-        <v>6903</v>
+        <v>26997</v>
       </c>
       <c r="AO65" s="18" t="n">
-        <v>26997</v>
+        <v>7916</v>
       </c>
       <c r="AP65" s="18" t="n">
-        <v>7916</v>
+        <v>17364</v>
       </c>
       <c r="AQ65" s="18" t="n">
-        <v>17364</v>
+        <v>22588</v>
       </c>
       <c r="AR65" s="18" t="n">
-        <v>22588</v>
+        <v>20625</v>
       </c>
       <c r="AS65" s="18" t="n">
-        <v>20625</v>
+        <v>20167</v>
       </c>
       <c r="AT65" s="18" t="n">
-        <v>20167</v>
+        <v>8575</v>
       </c>
       <c r="AU65" s="18" t="n">
-        <v>8575</v>
+        <v>14646</v>
       </c>
       <c r="AV65" s="18" t="n">
-        <v>14646</v>
+        <v>12433</v>
       </c>
       <c r="AW65" s="18" t="n">
-        <v>12433</v>
+        <v>16763</v>
       </c>
       <c r="AX65" s="18" t="n">
-        <v>16763</v>
+        <v>11753</v>
       </c>
       <c r="AY65" s="18" t="n">
-        <v>11753</v>
+        <v>12654</v>
       </c>
       <c r="AZ65" s="18" t="n">
-        <v>12654</v>
+        <v>10149</v>
       </c>
       <c r="BA65" s="18" t="n">
-        <v>10149</v>
+        <v>10933</v>
       </c>
       <c r="BB65" s="18" t="n">
-        <v>10933</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11313,8 +11313,8 @@
       <c r="T67" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="22" t="s">
-        <v>58</v>
+      <c r="U67" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="22" t="n">
         <v>0</v>
@@ -11527,8 +11527,8 @@
       <c r="T69" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="22" t="s">
-        <v>58</v>
+      <c r="U69" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="22" t="n">
         <v>0</v>
@@ -11685,106 +11685,106 @@
         <v>0</v>
       </c>
       <c r="U70" s="18" t="n">
-        <v>0</v>
+        <v>51044</v>
       </c>
       <c r="V70" s="18" t="n">
-        <v>51044</v>
+        <v>48819</v>
       </c>
       <c r="W70" s="18" t="n">
-        <v>48819</v>
+        <v>56532</v>
       </c>
       <c r="X70" s="18" t="n">
-        <v>56532</v>
+        <v>46371</v>
       </c>
       <c r="Y70" s="18" t="n">
-        <v>46371</v>
+        <v>45173</v>
       </c>
       <c r="Z70" s="18" t="n">
-        <v>45173</v>
+        <v>61672</v>
       </c>
       <c r="AA70" s="18" t="n">
-        <v>61672</v>
+        <v>49162</v>
       </c>
       <c r="AB70" s="18" t="n">
-        <v>49162</v>
+        <v>38813</v>
       </c>
       <c r="AC70" s="18" t="n">
-        <v>38813</v>
+        <v>62249</v>
       </c>
       <c r="AD70" s="18" t="n">
-        <v>62249</v>
+        <v>36985</v>
       </c>
       <c r="AE70" s="18" t="n">
-        <v>36985</v>
+        <v>56259</v>
       </c>
       <c r="AF70" s="18" t="n">
-        <v>56259</v>
+        <v>38300</v>
       </c>
       <c r="AG70" s="18" t="n">
-        <v>38300</v>
+        <v>40506</v>
       </c>
       <c r="AH70" s="18" t="n">
-        <v>40506</v>
+        <v>40922</v>
       </c>
       <c r="AI70" s="18" t="n">
-        <v>40922</v>
+        <v>62861</v>
       </c>
       <c r="AJ70" s="18" t="n">
-        <v>62861</v>
+        <v>37460</v>
       </c>
       <c r="AK70" s="18" t="n">
-        <v>37460</v>
+        <v>64424</v>
       </c>
       <c r="AL70" s="18" t="n">
-        <v>64424</v>
+        <v>54995</v>
       </c>
       <c r="AM70" s="18" t="n">
-        <v>54995</v>
+        <v>43372</v>
       </c>
       <c r="AN70" s="18" t="n">
-        <v>43372</v>
+        <v>56465</v>
       </c>
       <c r="AO70" s="18" t="n">
-        <v>56465</v>
+        <v>45850</v>
       </c>
       <c r="AP70" s="18" t="n">
-        <v>45850</v>
+        <v>42660</v>
       </c>
       <c r="AQ70" s="18" t="n">
-        <v>42660</v>
+        <v>58849</v>
       </c>
       <c r="AR70" s="18" t="n">
-        <v>58849</v>
+        <v>52469</v>
       </c>
       <c r="AS70" s="18" t="n">
-        <v>52469</v>
+        <v>50380</v>
       </c>
       <c r="AT70" s="18" t="n">
-        <v>50380</v>
+        <v>52945</v>
       </c>
       <c r="AU70" s="18" t="n">
-        <v>52945</v>
+        <v>54781</v>
       </c>
       <c r="AV70" s="18" t="n">
-        <v>54781</v>
+        <v>46968</v>
       </c>
       <c r="AW70" s="18" t="n">
-        <v>46968</v>
+        <v>50502</v>
       </c>
       <c r="AX70" s="18" t="n">
-        <v>50502</v>
+        <v>49279</v>
       </c>
       <c r="AY70" s="18" t="n">
-        <v>49279</v>
+        <v>48516</v>
       </c>
       <c r="AZ70" s="18" t="n">
-        <v>48516</v>
+        <v>47817</v>
       </c>
       <c r="BA70" s="18" t="n">
-        <v>47817</v>
+        <v>45195</v>
       </c>
       <c r="BB70" s="18" t="n">
-        <v>45195</v>
+        <v>29667</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12304,80 +12304,80 @@
       <c r="AC77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD77" s="13" t="s">
-        <v>58</v>
+      <c r="AD77" s="13" t="n">
+        <v>657081</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>657081</v>
+        <v>800139</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>800139</v>
+        <v>458857</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>458857</v>
+        <v>416975</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>416975</v>
+        <v>554636</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>554636</v>
+        <v>831301</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>831301</v>
+        <v>466395</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>466395</v>
+        <v>507492</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>507492</v>
+        <v>661556</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>661556</v>
+        <v>554639</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>554639</v>
+        <v>529477</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>529477</v>
+        <v>1216617</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>1216617</v>
+        <v>784316</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>784316</v>
+        <v>1201451</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>1201451</v>
+        <v>710636</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>710636</v>
+        <v>484170</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>484170</v>
+        <v>960566</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>960566</v>
+        <v>787369</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>787369</v>
+        <v>796378</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>796378</v>
+        <v>632659</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>632659</v>
+        <v>472623</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>472623</v>
+        <v>658100</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>658100</v>
+        <v>713208</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>713208</v>
+        <v>959357</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>959357</v>
+        <v>738108</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12436,107 +12436,107 @@
       <c r="T78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="16" t="s">
-        <v>58</v>
+      <c r="U78" s="16" t="n">
+        <v>3417</v>
       </c>
       <c r="V78" s="16" t="n">
-        <v>3417</v>
+        <v>49124</v>
       </c>
       <c r="W78" s="16" t="n">
-        <v>49124</v>
+        <v>77911</v>
       </c>
       <c r="X78" s="16" t="n">
-        <v>77911</v>
+        <v>67941</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>67941</v>
+        <v>22317</v>
       </c>
       <c r="Z78" s="16" t="n">
-        <v>22317</v>
+        <v>16194</v>
       </c>
       <c r="AA78" s="16" t="n">
-        <v>16194</v>
+        <v>36369</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>36369</v>
+        <v>5114</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>5114</v>
+        <v>1491</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>1491</v>
+        <v>956</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>956</v>
+        <v>1035</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>1035</v>
+        <v>1659</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>1659</v>
+        <v>9954</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>9954</v>
+        <v>48592</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>48592</v>
+        <v>325080</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>325080</v>
+        <v>77346</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>77346</v>
+        <v>121854</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>121854</v>
+        <v>27039</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>27039</v>
+        <v>63107</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>63107</v>
+        <v>7555</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>7555</v>
+        <v>1951</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>1951</v>
+        <v>818</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>818</v>
+        <v>13456</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>13456</v>
+        <v>11732</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>11732</v>
+        <v>3744</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>3744</v>
+        <v>98275</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>98275</v>
+        <v>244664</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>244664</v>
+        <v>176131</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>176131</v>
+        <v>287518</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>287518</v>
+        <v>43083</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>43083</v>
+        <v>44308</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>44308</v>
+        <v>6688</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>6688</v>
+        <v>3641</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>3641</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12595,35 +12595,35 @@
       <c r="T79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>58</v>
+      <c r="U79" s="13" t="n">
+        <v>2345536</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>2345536</v>
+        <v>2066119</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>2066119</v>
+        <v>2627619</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>2627619</v>
+        <v>1792973</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>1792973</v>
+        <v>2365424</v>
       </c>
       <c r="Z79" s="13" t="n">
-        <v>2365424</v>
+        <v>2825945</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>2825945</v>
+        <v>2479909</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>2479909</v>
+        <v>2931213</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>2931213</v>
-      </c>
-      <c r="AD79" s="13" t="n">
         <v>4473191</v>
+      </c>
+      <c r="AD79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE79" s="13" t="s">
         <v>58</v>
@@ -12754,35 +12754,35 @@
       <c r="T80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="16" t="s">
-        <v>58</v>
+      <c r="U80" s="16" t="n">
+        <v>120534</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>120534</v>
+        <v>218471</v>
       </c>
       <c r="W80" s="16" t="n">
-        <v>218471</v>
+        <v>407134</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>407134</v>
+        <v>304015</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>304015</v>
+        <v>355609</v>
       </c>
       <c r="Z80" s="16" t="n">
-        <v>355609</v>
+        <v>326661</v>
       </c>
       <c r="AA80" s="16" t="n">
-        <v>326661</v>
+        <v>311239</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>311239</v>
+        <v>233471</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>233471</v>
-      </c>
-      <c r="AD80" s="16" t="n">
         <v>482954</v>
+      </c>
+      <c r="AD80" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE80" s="16" t="s">
         <v>58</v>
@@ -12940,80 +12940,80 @@
       <c r="AC81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD81" s="13" t="s">
-        <v>58</v>
+      <c r="AD81" s="13" t="n">
+        <v>329998</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>329998</v>
+        <v>411061</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>411061</v>
+        <v>229061</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>229061</v>
+        <v>852111</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>852111</v>
+        <v>479100</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>479100</v>
+        <v>1475094</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>1475094</v>
+        <v>874762</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>874762</v>
+        <v>1275034</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>1275034</v>
+        <v>1131256</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>1131256</v>
+        <v>794673</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>794673</v>
+        <v>785502</v>
       </c>
       <c r="AO81" s="13" t="n">
-        <v>785502</v>
+        <v>972415</v>
       </c>
       <c r="AP81" s="13" t="n">
-        <v>972415</v>
+        <v>515637</v>
       </c>
       <c r="AQ81" s="13" t="n">
-        <v>515637</v>
+        <v>1104457</v>
       </c>
       <c r="AR81" s="13" t="n">
-        <v>1104457</v>
+        <v>1058287</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>1058287</v>
+        <v>1406741</v>
       </c>
       <c r="AT81" s="13" t="n">
-        <v>1406741</v>
+        <v>1826507</v>
       </c>
       <c r="AU81" s="13" t="n">
-        <v>1826507</v>
+        <v>1750675</v>
       </c>
       <c r="AV81" s="13" t="n">
-        <v>1750675</v>
+        <v>1234075</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>1234075</v>
+        <v>1149542</v>
       </c>
       <c r="AX81" s="13" t="n">
-        <v>1149542</v>
+        <v>1197900</v>
       </c>
       <c r="AY81" s="13" t="n">
-        <v>1197900</v>
+        <v>1145430</v>
       </c>
       <c r="AZ81" s="13" t="n">
-        <v>1145430</v>
+        <v>1529157</v>
       </c>
       <c r="BA81" s="13" t="n">
-        <v>1529157</v>
+        <v>1628380</v>
       </c>
       <c r="BB81" s="13" t="n">
-        <v>1628380</v>
+        <v>996850</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,107 +13072,107 @@
       <c r="T82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>58</v>
+      <c r="U82" s="16" t="n">
+        <v>11795</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>11795</v>
+        <v>26874</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>26874</v>
+        <v>30120</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>30120</v>
+        <v>39482</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>39482</v>
+        <v>29471</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>29471</v>
+        <v>10054</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>10054</v>
+        <v>21642</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>21642</v>
+        <v>30493</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>30493</v>
+        <v>31509</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>31509</v>
+        <v>15180</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>15180</v>
+        <v>6780</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>6780</v>
+        <v>10429</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>10429</v>
+        <v>6834</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>6834</v>
+        <v>27070</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>27070</v>
+        <v>15349</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>15349</v>
+        <v>14076</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>14076</v>
+        <v>12930</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>12930</v>
+        <v>60438</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>60438</v>
+        <v>60596</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>60596</v>
+        <v>79004</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>79004</v>
+        <v>49411</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>49411</v>
+        <v>11511</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>11511</v>
+        <v>29775</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>29775</v>
+        <v>24673</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>24673</v>
+        <v>26781</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>26781</v>
+        <v>157799</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>157799</v>
+        <v>126699</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>126699</v>
+        <v>124145</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>124145</v>
+        <v>238633</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>238633</v>
+        <v>228538</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>228538</v>
+        <v>194081</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>194081</v>
+        <v>87496</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>87496</v>
+        <v>39685</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>39685</v>
+        <v>35620</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13258,80 +13258,80 @@
       <c r="AC83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD83" s="13" t="s">
-        <v>58</v>
+      <c r="AD83" s="13" t="n">
+        <v>160479</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>160479</v>
+        <v>325204</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>325204</v>
+        <v>235030</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>235030</v>
+        <v>159135</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>159135</v>
+        <v>335531</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>335531</v>
+        <v>513640</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>513640</v>
+        <v>472626</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>472626</v>
+        <v>394878</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>394878</v>
+        <v>503769</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>503769</v>
+        <v>406596</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>406596</v>
+        <v>253836</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>253836</v>
+        <v>217010</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>217010</v>
+        <v>190146</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>190146</v>
+        <v>399932</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>399932</v>
+        <v>249791</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>249791</v>
+        <v>311418</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>311418</v>
+        <v>435846</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>435846</v>
+        <v>313287</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>313287</v>
+        <v>158123</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>158123</v>
+        <v>260364</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>260364</v>
+        <v>476985</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>476985</v>
+        <v>503333</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>503333</v>
+        <v>564882</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>564882</v>
+        <v>628560</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>628560</v>
+        <v>729868</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13417,80 +13417,80 @@
       <c r="AC84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD84" s="16" t="s">
-        <v>58</v>
+      <c r="AD84" s="16" t="n">
+        <v>381611</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>381611</v>
+        <v>572450</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>572450</v>
+        <v>642765</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>642765</v>
+        <v>973092</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>973092</v>
+        <v>1364366</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>1364366</v>
+        <v>2011916</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>2011916</v>
+        <v>1227377</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>1227377</v>
+        <v>1218167</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>1218167</v>
+        <v>1138744</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>1138744</v>
+        <v>1267050</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>1267050</v>
+        <v>937536</v>
       </c>
       <c r="AO84" s="16" t="n">
-        <v>937536</v>
+        <v>1153390</v>
       </c>
       <c r="AP84" s="16" t="n">
-        <v>1153390</v>
+        <v>317969</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>317969</v>
+        <v>815486</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>815486</v>
+        <v>1006010</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>1006010</v>
+        <v>2058816</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>2058816</v>
+        <v>2201621</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>2201621</v>
+        <v>2063149</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>2063149</v>
+        <v>1621215</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>1621215</v>
+        <v>2192902</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>2192902</v>
+        <v>1928088</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>1928088</v>
+        <v>1856016</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>1856016</v>
+        <v>2291833</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>2291833</v>
+        <v>1899116</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>1899116</v>
+        <v>712561</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13576,80 +13576,80 @@
       <c r="AC85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD85" s="13" t="s">
-        <v>58</v>
+      <c r="AD85" s="13" t="n">
+        <v>432591</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>432591</v>
+        <v>769832</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>769832</v>
+        <v>650965</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>650965</v>
+        <v>801820</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>801820</v>
+        <v>894586</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>894586</v>
+        <v>1478520</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>1478520</v>
+        <v>1210327</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>1210327</v>
+        <v>1194068</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>1194068</v>
+        <v>1190534</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>1190534</v>
+        <v>1200399</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>1200399</v>
+        <v>972646</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>972646</v>
+        <v>1277228</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>1277228</v>
+        <v>595436</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>595436</v>
+        <v>972111</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>972111</v>
+        <v>1625651</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>1625651</v>
+        <v>1498896</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>1498896</v>
+        <v>1546577</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>1546577</v>
+        <v>1637518</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>1637518</v>
+        <v>1409432</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>1409432</v>
+        <v>1566269</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>1566269</v>
+        <v>1788059</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>1788059</v>
+        <v>1931406</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>1931406</v>
+        <v>1992698</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>1992698</v>
+        <v>1571332</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>1571332</v>
+        <v>794461</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13735,80 +13735,80 @@
       <c r="AC86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD86" s="16" t="s">
-        <v>58</v>
+      <c r="AD86" s="16" t="n">
+        <v>415539</v>
       </c>
       <c r="AE86" s="16" t="n">
-        <v>415539</v>
+        <v>690555</v>
       </c>
       <c r="AF86" s="16" t="n">
-        <v>690555</v>
+        <v>622727</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>622727</v>
+        <v>633064</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>633064</v>
+        <v>564834</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>564834</v>
+        <v>987487</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>987487</v>
+        <v>660186</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>660186</v>
+        <v>874342</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>874342</v>
+        <v>990412</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>990412</v>
+        <v>1008671</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>1008671</v>
+        <v>939978</v>
       </c>
       <c r="AO86" s="16" t="n">
-        <v>939978</v>
+        <v>1134173</v>
       </c>
       <c r="AP86" s="16" t="n">
-        <v>1134173</v>
+        <v>703951</v>
       </c>
       <c r="AQ86" s="16" t="n">
-        <v>703951</v>
+        <v>1411951</v>
       </c>
       <c r="AR86" s="16" t="n">
-        <v>1411951</v>
+        <v>1296283</v>
       </c>
       <c r="AS86" s="16" t="n">
-        <v>1296283</v>
+        <v>1306265</v>
       </c>
       <c r="AT86" s="16" t="n">
-        <v>1306265</v>
+        <v>1031659</v>
       </c>
       <c r="AU86" s="16" t="n">
-        <v>1031659</v>
+        <v>1160719</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>1160719</v>
+        <v>1083077</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>1083077</v>
+        <v>1000382</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>1000382</v>
+        <v>1492432</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>1492432</v>
+        <v>1257459</v>
       </c>
       <c r="AZ86" s="16" t="n">
-        <v>1257459</v>
+        <v>1473279</v>
       </c>
       <c r="BA86" s="16" t="n">
-        <v>1473279</v>
+        <v>1928675</v>
       </c>
       <c r="BB86" s="16" t="n">
-        <v>1928675</v>
+        <v>623719</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13894,80 +13894,80 @@
       <c r="AC87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD87" s="13" t="s">
-        <v>58</v>
+      <c r="AD87" s="13" t="n">
+        <v>851406</v>
       </c>
       <c r="AE87" s="13" t="n">
-        <v>851406</v>
+        <v>656397</v>
       </c>
       <c r="AF87" s="13" t="n">
-        <v>656397</v>
+        <v>672712</v>
       </c>
       <c r="AG87" s="13" t="n">
-        <v>672712</v>
+        <v>502280</v>
       </c>
       <c r="AH87" s="13" t="n">
-        <v>502280</v>
+        <v>631429</v>
       </c>
       <c r="AI87" s="13" t="n">
-        <v>631429</v>
+        <v>645659</v>
       </c>
       <c r="AJ87" s="13" t="n">
-        <v>645659</v>
+        <v>667328</v>
       </c>
       <c r="AK87" s="13" t="n">
-        <v>667328</v>
+        <v>942462</v>
       </c>
       <c r="AL87" s="13" t="n">
-        <v>942462</v>
+        <v>869462</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>869462</v>
+        <v>1057800</v>
       </c>
       <c r="AN87" s="13" t="n">
-        <v>1057800</v>
+        <v>940645</v>
       </c>
       <c r="AO87" s="13" t="n">
-        <v>940645</v>
+        <v>858907</v>
       </c>
       <c r="AP87" s="13" t="n">
-        <v>858907</v>
+        <v>1383799</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>1383799</v>
+        <v>1421402</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>1421402</v>
+        <v>1431733</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>1431733</v>
+        <v>1004855</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>1004855</v>
+        <v>1651352</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>1651352</v>
+        <v>914392</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>914392</v>
+        <v>893777</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>893777</v>
+        <v>868724</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>868724</v>
+        <v>1299450</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>1299450</v>
+        <v>889957</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>889957</v>
+        <v>881326</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>881326</v>
+        <v>801570</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>801570</v>
+        <v>977701</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14025,106 +14025,106 @@
         <v>0</v>
       </c>
       <c r="U88" s="18" t="n">
-        <v>0</v>
+        <v>2481282</v>
       </c>
       <c r="V88" s="18" t="n">
-        <v>2481282</v>
+        <v>2360588</v>
       </c>
       <c r="W88" s="18" t="n">
-        <v>2360588</v>
+        <v>3142784</v>
       </c>
       <c r="X88" s="18" t="n">
-        <v>3142784</v>
+        <v>2204411</v>
       </c>
       <c r="Y88" s="18" t="n">
-        <v>2204411</v>
+        <v>2772821</v>
       </c>
       <c r="Z88" s="18" t="n">
-        <v>2772821</v>
+        <v>3178854</v>
       </c>
       <c r="AA88" s="18" t="n">
-        <v>3178854</v>
+        <v>2849159</v>
       </c>
       <c r="AB88" s="18" t="n">
-        <v>2849159</v>
+        <v>3200291</v>
       </c>
       <c r="AC88" s="18" t="n">
-        <v>3200291</v>
+        <v>4989145</v>
       </c>
       <c r="AD88" s="18" t="n">
-        <v>4989145</v>
+        <v>3244841</v>
       </c>
       <c r="AE88" s="18" t="n">
-        <v>3244841</v>
+        <v>4233453</v>
       </c>
       <c r="AF88" s="18" t="n">
-        <v>4233453</v>
+        <v>3524205</v>
       </c>
       <c r="AG88" s="18" t="n">
-        <v>3524205</v>
+        <v>4355265</v>
       </c>
       <c r="AH88" s="18" t="n">
-        <v>4355265</v>
+        <v>4900144</v>
       </c>
       <c r="AI88" s="18" t="n">
-        <v>4900144</v>
+        <v>8284046</v>
       </c>
       <c r="AJ88" s="18" t="n">
-        <v>8284046</v>
+        <v>5670423</v>
       </c>
       <c r="AK88" s="18" t="n">
-        <v>5670423</v>
+        <v>6541227</v>
       </c>
       <c r="AL88" s="18" t="n">
-        <v>6541227</v>
+        <v>6573210</v>
       </c>
       <c r="AM88" s="18" t="n">
-        <v>6573210</v>
+        <v>6413531</v>
       </c>
       <c r="AN88" s="18" t="n">
-        <v>6413531</v>
+        <v>5446179</v>
       </c>
       <c r="AO88" s="18" t="n">
-        <v>5446179</v>
+        <v>6881102</v>
       </c>
       <c r="AP88" s="18" t="n">
-        <v>6881102</v>
+        <v>4503583</v>
       </c>
       <c r="AQ88" s="18" t="n">
-        <v>4503583</v>
+        <v>7370021</v>
       </c>
       <c r="AR88" s="18" t="n">
-        <v>7370021</v>
+        <v>7414796</v>
       </c>
       <c r="AS88" s="18" t="n">
-        <v>7414796</v>
+        <v>8101686</v>
       </c>
       <c r="AT88" s="18" t="n">
-        <v>8101686</v>
+        <v>9910202</v>
       </c>
       <c r="AU88" s="18" t="n">
-        <v>9910202</v>
+        <v>8998472</v>
       </c>
       <c r="AV88" s="18" t="n">
-        <v>8998472</v>
+        <v>7496353</v>
       </c>
       <c r="AW88" s="18" t="n">
-        <v>7496353</v>
+        <v>8196993</v>
       </c>
       <c r="AX88" s="18" t="n">
-        <v>8196993</v>
+        <v>8927158</v>
       </c>
       <c r="AY88" s="18" t="n">
-        <v>8927158</v>
+        <v>8480090</v>
       </c>
       <c r="AZ88" s="18" t="n">
-        <v>8480090</v>
+        <v>9540567</v>
       </c>
       <c r="BA88" s="18" t="n">
-        <v>9540567</v>
+        <v>9460316</v>
       </c>
       <c r="BB88" s="18" t="n">
-        <v>9460316</v>
+        <v>5610278</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,11 +14273,11 @@
       <c r="AE90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF90" s="13" t="s">
-        <v>58</v>
+      <c r="AF90" s="13" t="n">
+        <v>108092</v>
       </c>
       <c r="AG90" s="13" t="n">
-        <v>108092</v>
+        <v>0</v>
       </c>
       <c r="AH90" s="13" t="n">
         <v>0</v>
@@ -14295,25 +14295,25 @@
         <v>0</v>
       </c>
       <c r="AM90" s="13" t="n">
-        <v>0</v>
+        <v>4998</v>
       </c>
       <c r="AN90" s="13" t="n">
-        <v>4998</v>
+        <v>0</v>
       </c>
       <c r="AO90" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP90" s="13" t="n">
-        <v>0</v>
+      <c r="AP90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR90" s="13" t="s">
-        <v>58</v>
+      <c r="AR90" s="13" t="n">
+        <v>19397</v>
       </c>
       <c r="AS90" s="13" t="n">
-        <v>19397</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="13" t="n">
         <v>0</v>
@@ -14334,10 +14334,10 @@
         <v>0</v>
       </c>
       <c r="AZ90" s="13" t="n">
-        <v>0</v>
+        <v>5541</v>
       </c>
       <c r="BA90" s="13" t="n">
-        <v>5541</v>
+        <v>0</v>
       </c>
       <c r="BB90" s="13" t="n">
         <v>0</v>
@@ -14399,35 +14399,35 @@
       <c r="T91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U91" s="16" t="s">
-        <v>58</v>
+      <c r="U91" s="16" t="n">
+        <v>563045</v>
       </c>
       <c r="V91" s="16" t="n">
-        <v>563045</v>
+        <v>872581</v>
       </c>
       <c r="W91" s="16" t="n">
-        <v>872581</v>
+        <v>1146192</v>
       </c>
       <c r="X91" s="16" t="n">
-        <v>1146192</v>
+        <v>2260778</v>
       </c>
       <c r="Y91" s="16" t="n">
-        <v>2260778</v>
+        <v>2305084</v>
       </c>
       <c r="Z91" s="16" t="n">
-        <v>2305084</v>
+        <v>3415542</v>
       </c>
       <c r="AA91" s="16" t="n">
-        <v>3415542</v>
+        <v>2578809</v>
       </c>
       <c r="AB91" s="16" t="n">
-        <v>2578809</v>
+        <v>706467</v>
       </c>
       <c r="AC91" s="16" t="n">
-        <v>706467</v>
-      </c>
-      <c r="AD91" s="16" t="n">
         <v>2783351</v>
+      </c>
+      <c r="AD91" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE91" s="16" t="s">
         <v>58</v>
@@ -14558,35 +14558,35 @@
       <c r="T92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U92" s="13" t="s">
-        <v>58</v>
+      <c r="U92" s="13" t="n">
+        <v>132377</v>
       </c>
       <c r="V92" s="13" t="n">
-        <v>132377</v>
+        <v>268083</v>
       </c>
       <c r="W92" s="13" t="n">
-        <v>268083</v>
+        <v>129961</v>
       </c>
       <c r="X92" s="13" t="n">
-        <v>129961</v>
+        <v>129782</v>
       </c>
       <c r="Y92" s="13" t="n">
-        <v>129782</v>
+        <v>103479</v>
       </c>
       <c r="Z92" s="13" t="n">
-        <v>103479</v>
+        <v>273098</v>
       </c>
       <c r="AA92" s="13" t="n">
-        <v>273098</v>
+        <v>216070</v>
       </c>
       <c r="AB92" s="13" t="n">
-        <v>216070</v>
+        <v>176922</v>
       </c>
       <c r="AC92" s="13" t="n">
-        <v>176922</v>
-      </c>
-      <c r="AD92" s="13" t="n">
         <v>228542</v>
+      </c>
+      <c r="AD92" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE92" s="13" t="s">
         <v>58</v>
@@ -14744,77 +14744,77 @@
       <c r="AC93" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD93" s="16" t="s">
-        <v>58</v>
+      <c r="AD93" s="16" t="n">
+        <v>79436</v>
       </c>
       <c r="AE93" s="16" t="n">
-        <v>79436</v>
+        <v>3185744</v>
       </c>
       <c r="AF93" s="16" t="n">
-        <v>3185744</v>
+        <v>394276</v>
       </c>
       <c r="AG93" s="16" t="n">
-        <v>394276</v>
+        <v>579845</v>
       </c>
       <c r="AH93" s="16" t="n">
-        <v>579845</v>
+        <v>0</v>
       </c>
       <c r="AI93" s="16" t="n">
-        <v>0</v>
+        <v>446412</v>
       </c>
       <c r="AJ93" s="16" t="n">
-        <v>446412</v>
+        <v>88983</v>
       </c>
       <c r="AK93" s="16" t="n">
-        <v>88983</v>
+        <v>2520374</v>
       </c>
       <c r="AL93" s="16" t="n">
-        <v>2520374</v>
+        <v>411260</v>
       </c>
       <c r="AM93" s="16" t="n">
-        <v>411260</v>
+        <v>0</v>
       </c>
       <c r="AN93" s="16" t="n">
-        <v>0</v>
+        <v>2676439</v>
       </c>
       <c r="AO93" s="16" t="n">
-        <v>2676439</v>
+        <v>0</v>
       </c>
       <c r="AP93" s="16" t="n">
-        <v>0</v>
+        <v>1596396</v>
       </c>
       <c r="AQ93" s="16" t="n">
-        <v>1596396</v>
+        <v>2844861</v>
       </c>
       <c r="AR93" s="16" t="n">
-        <v>2844861</v>
+        <v>1611754</v>
       </c>
       <c r="AS93" s="16" t="n">
-        <v>1611754</v>
+        <v>3802152</v>
       </c>
       <c r="AT93" s="16" t="n">
-        <v>3802152</v>
+        <v>183305</v>
       </c>
       <c r="AU93" s="16" t="n">
-        <v>183305</v>
+        <v>762367</v>
       </c>
       <c r="AV93" s="16" t="n">
-        <v>762367</v>
+        <v>512830</v>
       </c>
       <c r="AW93" s="16" t="n">
-        <v>512830</v>
+        <v>881765</v>
       </c>
       <c r="AX93" s="16" t="n">
-        <v>881765</v>
+        <v>1559369</v>
       </c>
       <c r="AY93" s="16" t="n">
-        <v>1559369</v>
+        <v>709435</v>
       </c>
       <c r="AZ93" s="16" t="n">
-        <v>709435</v>
+        <v>577982</v>
       </c>
       <c r="BA93" s="16" t="n">
-        <v>577982</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="16" t="n">
         <v>0</v>
@@ -14903,80 +14903,80 @@
       <c r="AC94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD94" s="13" t="s">
-        <v>58</v>
+      <c r="AD94" s="13" t="n">
+        <v>358552</v>
       </c>
       <c r="AE94" s="13" t="n">
-        <v>358552</v>
+        <v>321643</v>
       </c>
       <c r="AF94" s="13" t="n">
-        <v>321643</v>
+        <v>231857</v>
       </c>
       <c r="AG94" s="13" t="n">
-        <v>231857</v>
+        <v>310985</v>
       </c>
       <c r="AH94" s="13" t="n">
-        <v>310985</v>
+        <v>337735</v>
       </c>
       <c r="AI94" s="13" t="n">
-        <v>337735</v>
+        <v>442543</v>
       </c>
       <c r="AJ94" s="13" t="n">
-        <v>442543</v>
+        <v>269467</v>
       </c>
       <c r="AK94" s="13" t="n">
-        <v>269467</v>
+        <v>627408</v>
       </c>
       <c r="AL94" s="13" t="n">
-        <v>627408</v>
+        <v>427704</v>
       </c>
       <c r="AM94" s="13" t="n">
-        <v>427704</v>
+        <v>436926</v>
       </c>
       <c r="AN94" s="13" t="n">
-        <v>436926</v>
+        <v>830821</v>
       </c>
       <c r="AO94" s="13" t="n">
-        <v>830821</v>
+        <v>574792</v>
       </c>
       <c r="AP94" s="13" t="n">
-        <v>574792</v>
+        <v>826318</v>
       </c>
       <c r="AQ94" s="13" t="n">
-        <v>826318</v>
+        <v>1024966</v>
       </c>
       <c r="AR94" s="13" t="n">
-        <v>1024966</v>
+        <v>756127</v>
       </c>
       <c r="AS94" s="13" t="n">
-        <v>756127</v>
+        <v>536599</v>
       </c>
       <c r="AT94" s="13" t="n">
-        <v>536599</v>
+        <v>570242</v>
       </c>
       <c r="AU94" s="13" t="n">
-        <v>570242</v>
+        <v>762796</v>
       </c>
       <c r="AV94" s="13" t="n">
-        <v>762796</v>
+        <v>801384</v>
       </c>
       <c r="AW94" s="13" t="n">
-        <v>801384</v>
+        <v>927978</v>
       </c>
       <c r="AX94" s="13" t="n">
-        <v>927978</v>
+        <v>476145</v>
       </c>
       <c r="AY94" s="13" t="n">
-        <v>476145</v>
+        <v>302341</v>
       </c>
       <c r="AZ94" s="13" t="n">
-        <v>302341</v>
+        <v>435631</v>
       </c>
       <c r="BA94" s="13" t="n">
-        <v>435631</v>
+        <v>515817</v>
       </c>
       <c r="BB94" s="13" t="n">
-        <v>515817</v>
+        <v>750546</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15065,77 +15065,77 @@
       <c r="AD95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AE95" s="16" t="s">
-        <v>58</v>
+      <c r="AE95" s="16" t="n">
+        <v>79301</v>
       </c>
       <c r="AF95" s="16" t="n">
-        <v>79301</v>
+        <v>0</v>
       </c>
       <c r="AG95" s="16" t="n">
-        <v>0</v>
+        <v>58719</v>
       </c>
       <c r="AH95" s="16" t="n">
-        <v>58719</v>
+        <v>0</v>
       </c>
       <c r="AI95" s="16" t="n">
-        <v>0</v>
+        <v>75469</v>
       </c>
       <c r="AJ95" s="16" t="n">
-        <v>75469</v>
+        <v>10022</v>
       </c>
       <c r="AK95" s="16" t="n">
-        <v>10022</v>
+        <v>16884</v>
       </c>
       <c r="AL95" s="16" t="n">
-        <v>16884</v>
+        <v>36633</v>
       </c>
       <c r="AM95" s="16" t="n">
-        <v>36633</v>
+        <v>96143</v>
       </c>
       <c r="AN95" s="16" t="n">
-        <v>96143</v>
+        <v>71920</v>
       </c>
       <c r="AO95" s="16" t="n">
-        <v>71920</v>
+        <v>113323</v>
       </c>
       <c r="AP95" s="16" t="n">
-        <v>113323</v>
+        <v>53248</v>
       </c>
       <c r="AQ95" s="16" t="n">
-        <v>53248</v>
+        <v>0</v>
       </c>
       <c r="AR95" s="16" t="n">
-        <v>0</v>
+        <v>107345</v>
       </c>
       <c r="AS95" s="16" t="n">
-        <v>107345</v>
+        <v>0</v>
       </c>
       <c r="AT95" s="16" t="n">
-        <v>0</v>
+        <v>47567</v>
       </c>
       <c r="AU95" s="16" t="n">
-        <v>47567</v>
+        <v>17664</v>
       </c>
       <c r="AV95" s="16" t="n">
-        <v>17664</v>
+        <v>7431</v>
       </c>
       <c r="AW95" s="16" t="n">
-        <v>7431</v>
+        <v>76734</v>
       </c>
       <c r="AX95" s="16" t="n">
-        <v>76734</v>
+        <v>23425</v>
       </c>
       <c r="AY95" s="16" t="n">
-        <v>23425</v>
+        <v>14539</v>
       </c>
       <c r="AZ95" s="16" t="n">
-        <v>14539</v>
+        <v>77688</v>
       </c>
       <c r="BA95" s="16" t="n">
-        <v>77688</v>
+        <v>41688</v>
       </c>
       <c r="BB95" s="16" t="n">
-        <v>41688</v>
+        <v>99809</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15224,59 +15224,59 @@
       <c r="AD96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE96" s="13" t="s">
-        <v>58</v>
+      <c r="AE96" s="13" t="n">
+        <v>27466</v>
       </c>
       <c r="AF96" s="13" t="n">
-        <v>27466</v>
+        <v>15103</v>
       </c>
       <c r="AG96" s="13" t="n">
-        <v>15103</v>
+        <v>23628</v>
       </c>
       <c r="AH96" s="13" t="n">
-        <v>23628</v>
+        <v>22109</v>
       </c>
       <c r="AI96" s="13" t="n">
-        <v>22109</v>
+        <v>51485</v>
       </c>
       <c r="AJ96" s="13" t="n">
-        <v>51485</v>
+        <v>42318</v>
       </c>
       <c r="AK96" s="13" t="n">
-        <v>42318</v>
+        <v>4808</v>
       </c>
       <c r="AL96" s="13" t="n">
-        <v>4808</v>
+        <v>47837</v>
       </c>
       <c r="AM96" s="13" t="n">
-        <v>47837</v>
+        <v>22491</v>
       </c>
       <c r="AN96" s="13" t="n">
-        <v>22491</v>
+        <v>43271</v>
       </c>
       <c r="AO96" s="13" t="n">
-        <v>43271</v>
+        <v>41020</v>
       </c>
       <c r="AP96" s="13" t="n">
-        <v>41020</v>
+        <v>52615</v>
       </c>
       <c r="AQ96" s="13" t="n">
-        <v>52615</v>
+        <v>0</v>
       </c>
       <c r="AR96" s="13" t="n">
-        <v>0</v>
+        <v>42495</v>
       </c>
       <c r="AS96" s="13" t="n">
-        <v>42495</v>
+        <v>0</v>
       </c>
       <c r="AT96" s="13" t="n">
-        <v>0</v>
+        <v>12431</v>
       </c>
       <c r="AU96" s="13" t="n">
-        <v>12431</v>
+        <v>14800</v>
       </c>
       <c r="AV96" s="13" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="AW96" s="13" t="n">
         <v>0</v>
@@ -15285,16 +15285,16 @@
         <v>0</v>
       </c>
       <c r="AY96" s="13" t="n">
-        <v>0</v>
+        <v>8692</v>
       </c>
       <c r="AZ96" s="13" t="n">
-        <v>8692</v>
+        <v>0</v>
       </c>
       <c r="BA96" s="13" t="n">
-        <v>0</v>
+        <v>25835</v>
       </c>
       <c r="BB96" s="13" t="n">
-        <v>25835</v>
+        <v>68385</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15395,20 +15395,20 @@
       <c r="AH97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI97" s="16" t="s">
-        <v>58</v>
+      <c r="AI97" s="16" t="n">
+        <v>4604</v>
       </c>
       <c r="AJ97" s="16" t="n">
-        <v>4604</v>
+        <v>0</v>
       </c>
       <c r="AK97" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AL97" s="16" t="n">
-        <v>0</v>
+        <v>4388</v>
       </c>
       <c r="AM97" s="16" t="n">
-        <v>4388</v>
+        <v>0</v>
       </c>
       <c r="AN97" s="16" t="n">
         <v>0</v>
@@ -15416,8 +15416,8 @@
       <c r="AO97" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP97" s="16" t="n">
-        <v>0</v>
+      <c r="AP97" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ97" s="16" t="s">
         <v>58</v>
@@ -15431,8 +15431,8 @@
       <c r="AT97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU97" s="16" t="s">
-        <v>58</v>
+      <c r="AU97" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AV97" s="16" t="n">
         <v>0</v>
@@ -15539,80 +15539,80 @@
       <c r="AC98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD98" s="13" t="s">
-        <v>58</v>
+      <c r="AD98" s="13" t="n">
+        <v>164159</v>
       </c>
       <c r="AE98" s="13" t="n">
-        <v>164159</v>
+        <v>232409</v>
       </c>
       <c r="AF98" s="13" t="n">
-        <v>232409</v>
+        <v>211575</v>
       </c>
       <c r="AG98" s="13" t="n">
-        <v>211575</v>
+        <v>164430</v>
       </c>
       <c r="AH98" s="13" t="n">
-        <v>164430</v>
+        <v>492837</v>
       </c>
       <c r="AI98" s="13" t="n">
-        <v>492837</v>
+        <v>310010</v>
       </c>
       <c r="AJ98" s="13" t="n">
-        <v>310010</v>
+        <v>244466</v>
       </c>
       <c r="AK98" s="13" t="n">
-        <v>244466</v>
+        <v>828742</v>
       </c>
       <c r="AL98" s="13" t="n">
-        <v>828742</v>
+        <v>1141861</v>
       </c>
       <c r="AM98" s="13" t="n">
-        <v>1141861</v>
+        <v>350856</v>
       </c>
       <c r="AN98" s="13" t="n">
-        <v>350856</v>
+        <v>753936</v>
       </c>
       <c r="AO98" s="13" t="n">
-        <v>753936</v>
+        <v>371135</v>
       </c>
       <c r="AP98" s="13" t="n">
-        <v>371135</v>
+        <v>952148</v>
       </c>
       <c r="AQ98" s="13" t="n">
-        <v>952148</v>
+        <v>970089</v>
       </c>
       <c r="AR98" s="13" t="n">
-        <v>970089</v>
+        <v>1292498</v>
       </c>
       <c r="AS98" s="13" t="n">
-        <v>1292498</v>
+        <v>414737</v>
       </c>
       <c r="AT98" s="13" t="n">
-        <v>414737</v>
+        <v>511829</v>
       </c>
       <c r="AU98" s="13" t="n">
-        <v>511829</v>
+        <v>647534</v>
       </c>
       <c r="AV98" s="13" t="n">
-        <v>647534</v>
+        <v>446094</v>
       </c>
       <c r="AW98" s="13" t="n">
-        <v>446094</v>
+        <v>633123</v>
       </c>
       <c r="AX98" s="13" t="n">
-        <v>633123</v>
+        <v>162508</v>
       </c>
       <c r="AY98" s="13" t="n">
-        <v>162508</v>
+        <v>548258</v>
       </c>
       <c r="AZ98" s="13" t="n">
-        <v>548258</v>
+        <v>352529</v>
       </c>
       <c r="BA98" s="13" t="n">
-        <v>352529</v>
+        <v>906846</v>
       </c>
       <c r="BB98" s="13" t="n">
-        <v>906846</v>
+        <v>289776</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15670,106 +15670,106 @@
         <v>0</v>
       </c>
       <c r="U99" s="18" t="n">
-        <v>0</v>
+        <v>695422</v>
       </c>
       <c r="V99" s="18" t="n">
-        <v>695422</v>
+        <v>1140664</v>
       </c>
       <c r="W99" s="18" t="n">
-        <v>1140664</v>
+        <v>1276153</v>
       </c>
       <c r="X99" s="18" t="n">
-        <v>1276153</v>
+        <v>2390560</v>
       </c>
       <c r="Y99" s="18" t="n">
-        <v>2390560</v>
+        <v>2408563</v>
       </c>
       <c r="Z99" s="18" t="n">
-        <v>2408563</v>
+        <v>3688640</v>
       </c>
       <c r="AA99" s="18" t="n">
-        <v>3688640</v>
+        <v>2794879</v>
       </c>
       <c r="AB99" s="18" t="n">
-        <v>2794879</v>
+        <v>883389</v>
       </c>
       <c r="AC99" s="18" t="n">
-        <v>883389</v>
+        <v>3011893</v>
       </c>
       <c r="AD99" s="18" t="n">
-        <v>3011893</v>
+        <v>602147</v>
       </c>
       <c r="AE99" s="18" t="n">
-        <v>602147</v>
+        <v>3846563</v>
       </c>
       <c r="AF99" s="18" t="n">
-        <v>3846563</v>
+        <v>960903</v>
       </c>
       <c r="AG99" s="18" t="n">
-        <v>960903</v>
+        <v>1137607</v>
       </c>
       <c r="AH99" s="18" t="n">
-        <v>1137607</v>
+        <v>852681</v>
       </c>
       <c r="AI99" s="18" t="n">
-        <v>852681</v>
+        <v>1330523</v>
       </c>
       <c r="AJ99" s="18" t="n">
-        <v>1330523</v>
+        <v>655256</v>
       </c>
       <c r="AK99" s="18" t="n">
-        <v>655256</v>
+        <v>3998216</v>
       </c>
       <c r="AL99" s="18" t="n">
-        <v>3998216</v>
+        <v>2069683</v>
       </c>
       <c r="AM99" s="18" t="n">
-        <v>2069683</v>
+        <v>911414</v>
       </c>
       <c r="AN99" s="18" t="n">
-        <v>911414</v>
+        <v>4376387</v>
       </c>
       <c r="AO99" s="18" t="n">
-        <v>4376387</v>
+        <v>1100270</v>
       </c>
       <c r="AP99" s="18" t="n">
-        <v>1100270</v>
+        <v>3480725</v>
       </c>
       <c r="AQ99" s="18" t="n">
-        <v>3480725</v>
+        <v>4839916</v>
       </c>
       <c r="AR99" s="18" t="n">
-        <v>4839916</v>
+        <v>3829616</v>
       </c>
       <c r="AS99" s="18" t="n">
-        <v>3829616</v>
+        <v>4753488</v>
       </c>
       <c r="AT99" s="18" t="n">
-        <v>4753488</v>
+        <v>1325374</v>
       </c>
       <c r="AU99" s="18" t="n">
-        <v>1325374</v>
+        <v>2205161</v>
       </c>
       <c r="AV99" s="18" t="n">
-        <v>2205161</v>
+        <v>1767739</v>
       </c>
       <c r="AW99" s="18" t="n">
-        <v>1767739</v>
+        <v>2519600</v>
       </c>
       <c r="AX99" s="18" t="n">
-        <v>2519600</v>
+        <v>2221447</v>
       </c>
       <c r="AY99" s="18" t="n">
-        <v>2221447</v>
+        <v>1583265</v>
       </c>
       <c r="AZ99" s="18" t="n">
-        <v>1583265</v>
+        <v>1449371</v>
       </c>
       <c r="BA99" s="18" t="n">
-        <v>1449371</v>
+        <v>1490186</v>
       </c>
       <c r="BB99" s="18" t="n">
-        <v>1490186</v>
+        <v>1208516</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15885,8 +15885,8 @@
       <c r="T101" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U101" s="22" t="s">
-        <v>58</v>
+      <c r="U101" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V101" s="23" t="n">
         <v>0</v>
@@ -16101,8 +16101,8 @@
       <c r="T103" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U103" s="22" t="s">
-        <v>58</v>
+      <c r="U103" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V103" s="23" t="n">
         <v>0</v>
@@ -16317,8 +16317,8 @@
       <c r="T105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U105" s="13" t="s">
-        <v>58</v>
+      <c r="U105" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V105" s="13" t="n">
         <v>0</v>
@@ -16475,106 +16475,106 @@
         <v>0</v>
       </c>
       <c r="U106" s="18" t="n">
-        <v>0</v>
+        <v>3176704</v>
       </c>
       <c r="V106" s="18" t="n">
-        <v>3176704</v>
+        <v>3501252</v>
       </c>
       <c r="W106" s="18" t="n">
-        <v>3501252</v>
+        <v>4418937</v>
       </c>
       <c r="X106" s="18" t="n">
-        <v>4418937</v>
+        <v>4594971</v>
       </c>
       <c r="Y106" s="18" t="n">
-        <v>4594971</v>
+        <v>5181384</v>
       </c>
       <c r="Z106" s="18" t="n">
-        <v>5181384</v>
+        <v>6867494</v>
       </c>
       <c r="AA106" s="18" t="n">
-        <v>6867494</v>
+        <v>5644038</v>
       </c>
       <c r="AB106" s="18" t="n">
-        <v>5644038</v>
+        <v>4083680</v>
       </c>
       <c r="AC106" s="18" t="n">
-        <v>4083680</v>
+        <v>8001038</v>
       </c>
       <c r="AD106" s="18" t="n">
-        <v>8001038</v>
+        <v>3846988</v>
       </c>
       <c r="AE106" s="18" t="n">
-        <v>3846988</v>
+        <v>8080016</v>
       </c>
       <c r="AF106" s="18" t="n">
-        <v>8080016</v>
+        <v>4485108</v>
       </c>
       <c r="AG106" s="18" t="n">
-        <v>4485108</v>
+        <v>5492872</v>
       </c>
       <c r="AH106" s="18" t="n">
-        <v>5492872</v>
+        <v>5752825</v>
       </c>
       <c r="AI106" s="18" t="n">
-        <v>5752825</v>
+        <v>9614569</v>
       </c>
       <c r="AJ106" s="18" t="n">
-        <v>9614569</v>
+        <v>6325679</v>
       </c>
       <c r="AK106" s="18" t="n">
-        <v>6325679</v>
+        <v>10539443</v>
       </c>
       <c r="AL106" s="18" t="n">
-        <v>10539443</v>
+        <v>8642893</v>
       </c>
       <c r="AM106" s="18" t="n">
-        <v>8642893</v>
+        <v>7324945</v>
       </c>
       <c r="AN106" s="18" t="n">
-        <v>7324945</v>
+        <v>9822566</v>
       </c>
       <c r="AO106" s="18" t="n">
-        <v>9822566</v>
+        <v>7981372</v>
       </c>
       <c r="AP106" s="18" t="n">
-        <v>7981372</v>
+        <v>7984308</v>
       </c>
       <c r="AQ106" s="18" t="n">
-        <v>7984308</v>
+        <v>12209937</v>
       </c>
       <c r="AR106" s="18" t="n">
-        <v>12209937</v>
+        <v>11244412</v>
       </c>
       <c r="AS106" s="18" t="n">
-        <v>11244412</v>
+        <v>12855174</v>
       </c>
       <c r="AT106" s="18" t="n">
-        <v>12855174</v>
+        <v>11235576</v>
       </c>
       <c r="AU106" s="18" t="n">
-        <v>11235576</v>
+        <v>11203633</v>
       </c>
       <c r="AV106" s="18" t="n">
-        <v>11203633</v>
+        <v>9264092</v>
       </c>
       <c r="AW106" s="18" t="n">
-        <v>9264092</v>
+        <v>10716593</v>
       </c>
       <c r="AX106" s="18" t="n">
-        <v>10716593</v>
+        <v>11148605</v>
       </c>
       <c r="AY106" s="18" t="n">
-        <v>11148605</v>
+        <v>10063355</v>
       </c>
       <c r="AZ106" s="18" t="n">
-        <v>10063355</v>
+        <v>10989938</v>
       </c>
       <c r="BA106" s="18" t="n">
-        <v>10989938</v>
+        <v>10950502</v>
       </c>
       <c r="BB106" s="18" t="n">
-        <v>10950502</v>
+        <v>6818794</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17094,80 +17094,80 @@
       <c r="AC113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD113" s="13" t="s">
-        <v>58</v>
+      <c r="AD113" s="13" t="n">
+        <v>60717150</v>
       </c>
       <c r="AE113" s="13" t="n">
-        <v>60717150</v>
+        <v>61083976</v>
       </c>
       <c r="AF113" s="13" t="n">
-        <v>61083976</v>
+        <v>59615045</v>
       </c>
       <c r="AG113" s="13" t="n">
-        <v>59615045</v>
+        <v>56424222</v>
       </c>
       <c r="AH113" s="13" t="n">
-        <v>56424222</v>
+        <v>60975814</v>
       </c>
       <c r="AI113" s="13" t="n">
-        <v>60975814</v>
+        <v>62825045</v>
       </c>
       <c r="AJ113" s="13" t="n">
-        <v>62825045</v>
+        <v>69945261</v>
       </c>
       <c r="AK113" s="13" t="n">
-        <v>69945261</v>
+        <v>77185095</v>
       </c>
       <c r="AL113" s="13" t="n">
-        <v>77185095</v>
+        <v>78050496</v>
       </c>
       <c r="AM113" s="13" t="n">
-        <v>78050496</v>
+        <v>76947697</v>
       </c>
       <c r="AN113" s="13" t="n">
-        <v>76947697</v>
+        <v>86473461</v>
       </c>
       <c r="AO113" s="13" t="n">
-        <v>86473461</v>
+        <v>87250215</v>
       </c>
       <c r="AP113" s="13" t="n">
-        <v>87250215</v>
+        <v>97357994</v>
       </c>
       <c r="AQ113" s="13" t="n">
-        <v>97357994</v>
+        <v>100632465</v>
       </c>
       <c r="AR113" s="13" t="n">
-        <v>100632465</v>
+        <v>99445284</v>
       </c>
       <c r="AS113" s="13" t="n">
-        <v>99445284</v>
+        <v>98528694</v>
       </c>
       <c r="AT113" s="13" t="n">
-        <v>98528694</v>
+        <v>82622226</v>
       </c>
       <c r="AU113" s="13" t="n">
-        <v>82622226</v>
+        <v>82094568</v>
       </c>
       <c r="AV113" s="13" t="n">
-        <v>82094568</v>
+        <v>76041058</v>
       </c>
       <c r="AW113" s="13" t="n">
-        <v>76041058</v>
+        <v>90418608</v>
       </c>
       <c r="AX113" s="13" t="n">
-        <v>90418608</v>
+        <v>96178877</v>
       </c>
       <c r="AY113" s="13" t="n">
-        <v>96178877</v>
+        <v>94216178</v>
       </c>
       <c r="AZ113" s="13" t="n">
-        <v>94216178</v>
+        <v>103875328</v>
       </c>
       <c r="BA113" s="13" t="n">
-        <v>103875328</v>
+        <v>121591508</v>
       </c>
       <c r="BB113" s="13" t="n">
-        <v>121591508</v>
+        <v>154967038</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17226,107 +17226,107 @@
       <c r="T114" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U114" s="16" t="s">
-        <v>58</v>
+      <c r="U114" s="16" t="n">
+        <v>170850000</v>
       </c>
       <c r="V114" s="16" t="n">
-        <v>170850000</v>
+        <v>158464516</v>
       </c>
       <c r="W114" s="16" t="n">
-        <v>158464516</v>
+        <v>161641079</v>
       </c>
       <c r="X114" s="16" t="n">
-        <v>161641079</v>
+        <v>202808955</v>
       </c>
       <c r="Y114" s="16" t="n">
-        <v>202808955</v>
+        <v>214586538</v>
       </c>
       <c r="Z114" s="16" t="n">
-        <v>214586538</v>
+        <v>231342857</v>
       </c>
       <c r="AA114" s="16" t="n">
-        <v>231342857</v>
+        <v>236162338</v>
       </c>
       <c r="AB114" s="16" t="n">
-        <v>236162338</v>
+        <v>255700000</v>
       </c>
       <c r="AC114" s="16" t="n">
-        <v>255700000</v>
+        <v>248500000</v>
       </c>
       <c r="AD114" s="16" t="n">
-        <v>248500000</v>
+        <v>239000000</v>
       </c>
       <c r="AE114" s="16" t="n">
-        <v>239000000</v>
+        <v>258750000</v>
       </c>
       <c r="AF114" s="16" t="n">
-        <v>258750000</v>
+        <v>331800000</v>
       </c>
       <c r="AG114" s="16" t="n">
-        <v>331800000</v>
+        <v>382846154</v>
       </c>
       <c r="AH114" s="16" t="n">
-        <v>382846154</v>
+        <v>354686131</v>
       </c>
       <c r="AI114" s="16" t="n">
-        <v>354686131</v>
+        <v>352964169</v>
       </c>
       <c r="AJ114" s="16" t="n">
-        <v>352964169</v>
+        <v>363126761</v>
       </c>
       <c r="AK114" s="16" t="n">
-        <v>363126761</v>
+        <v>374935385</v>
       </c>
       <c r="AL114" s="16" t="n">
-        <v>374935385</v>
+        <v>365391892</v>
       </c>
       <c r="AM114" s="16" t="n">
-        <v>365391892</v>
+        <v>348657459</v>
       </c>
       <c r="AN114" s="16" t="n">
-        <v>348657459</v>
+        <v>377750000</v>
       </c>
       <c r="AO114" s="16" t="n">
-        <v>377750000</v>
+        <v>390200000</v>
       </c>
       <c r="AP114" s="16" t="n">
-        <v>390200000</v>
+        <v>409000000</v>
       </c>
       <c r="AQ114" s="16" t="n">
-        <v>409000000</v>
+        <v>384457143</v>
       </c>
       <c r="AR114" s="16" t="n">
-        <v>384457143</v>
+        <v>469280000</v>
       </c>
       <c r="AS114" s="16" t="n">
-        <v>469280000</v>
+        <v>374400000</v>
       </c>
       <c r="AT114" s="16" t="n">
-        <v>374400000</v>
+        <v>581508876</v>
       </c>
       <c r="AU114" s="16" t="n">
-        <v>581508876</v>
+        <v>598200489</v>
       </c>
       <c r="AV114" s="16" t="n">
-        <v>598200489</v>
+        <v>595037162</v>
       </c>
       <c r="AW114" s="16" t="n">
-        <v>595037162</v>
+        <v>600246347</v>
       </c>
       <c r="AX114" s="16" t="n">
-        <v>600246347</v>
+        <v>538537500</v>
       </c>
       <c r="AY114" s="16" t="n">
-        <v>538537500</v>
+        <v>553850000</v>
       </c>
       <c r="AZ114" s="16" t="n">
-        <v>553850000</v>
+        <v>608000000</v>
       </c>
       <c r="BA114" s="16" t="n">
-        <v>608000000</v>
+        <v>606833333</v>
       </c>
       <c r="BB114" s="16" t="n">
-        <v>606833333</v>
+        <v>1390000000</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17385,35 +17385,35 @@
       <c r="T115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U115" s="13" t="s">
-        <v>58</v>
+      <c r="U115" s="13" t="n">
+        <v>78883971</v>
       </c>
       <c r="V115" s="13" t="n">
-        <v>78883971</v>
+        <v>84290103</v>
       </c>
       <c r="W115" s="13" t="n">
-        <v>84290103</v>
+        <v>77820791</v>
       </c>
       <c r="X115" s="13" t="n">
-        <v>77820791</v>
+        <v>110241822</v>
       </c>
       <c r="Y115" s="13" t="n">
-        <v>110241822</v>
+        <v>93966710</v>
       </c>
       <c r="Z115" s="13" t="n">
-        <v>93966710</v>
+        <v>97925878</v>
       </c>
       <c r="AA115" s="13" t="n">
-        <v>97925878</v>
+        <v>113684285</v>
       </c>
       <c r="AB115" s="13" t="n">
-        <v>113684285</v>
+        <v>106218764</v>
       </c>
       <c r="AC115" s="13" t="n">
-        <v>106218764</v>
-      </c>
-      <c r="AD115" s="13" t="n">
         <v>130630815</v>
+      </c>
+      <c r="AD115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE115" s="13" t="s">
         <v>58</v>
@@ -17544,35 +17544,35 @@
       <c r="T116" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U116" s="16" t="s">
-        <v>58</v>
+      <c r="U116" s="16" t="n">
+        <v>30050860</v>
       </c>
       <c r="V116" s="16" t="n">
-        <v>30050860</v>
+        <v>45410725</v>
       </c>
       <c r="W116" s="16" t="n">
-        <v>45410725</v>
+        <v>63495633</v>
       </c>
       <c r="X116" s="16" t="n">
-        <v>63495633</v>
+        <v>84308098</v>
       </c>
       <c r="Y116" s="16" t="n">
-        <v>84308098</v>
+        <v>90233190</v>
       </c>
       <c r="Z116" s="16" t="n">
-        <v>90233190</v>
+        <v>101890518</v>
       </c>
       <c r="AA116" s="16" t="n">
-        <v>101890518</v>
+        <v>110800641</v>
       </c>
       <c r="AB116" s="16" t="n">
-        <v>110800641</v>
+        <v>93650622</v>
       </c>
       <c r="AC116" s="16" t="n">
-        <v>93650622</v>
-      </c>
-      <c r="AD116" s="16" t="n">
         <v>102559779</v>
+      </c>
+      <c r="AD116" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE116" s="16" t="s">
         <v>58</v>
@@ -17730,80 +17730,80 @@
       <c r="AC117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD117" s="13" t="s">
-        <v>58</v>
+      <c r="AD117" s="13" t="n">
+        <v>162640710</v>
       </c>
       <c r="AE117" s="13" t="n">
-        <v>162640710</v>
+        <v>225609769</v>
       </c>
       <c r="AF117" s="13" t="n">
-        <v>225609769</v>
+        <v>180647476</v>
       </c>
       <c r="AG117" s="13" t="n">
-        <v>180647476</v>
+        <v>128098467</v>
       </c>
       <c r="AH117" s="13" t="n">
-        <v>128098467</v>
+        <v>225352775</v>
       </c>
       <c r="AI117" s="13" t="n">
-        <v>225352775</v>
+        <v>127174239</v>
       </c>
       <c r="AJ117" s="13" t="n">
-        <v>127174239</v>
+        <v>203527687</v>
       </c>
       <c r="AK117" s="13" t="n">
-        <v>203527687</v>
+        <v>240754154</v>
       </c>
       <c r="AL117" s="13" t="n">
-        <v>240754154</v>
+        <v>233634036</v>
       </c>
       <c r="AM117" s="13" t="n">
-        <v>233634036</v>
+        <v>195587743</v>
       </c>
       <c r="AN117" s="13" t="n">
-        <v>195587743</v>
+        <v>214500819</v>
       </c>
       <c r="AO117" s="13" t="n">
-        <v>214500819</v>
+        <v>223440947</v>
       </c>
       <c r="AP117" s="13" t="n">
-        <v>223440947</v>
+        <v>242424542</v>
       </c>
       <c r="AQ117" s="13" t="n">
-        <v>242424542</v>
+        <v>245380360</v>
       </c>
       <c r="AR117" s="13" t="n">
-        <v>245380360</v>
+        <v>247784360</v>
       </c>
       <c r="AS117" s="13" t="n">
-        <v>247784360</v>
+        <v>277792457</v>
       </c>
       <c r="AT117" s="13" t="n">
-        <v>277792457</v>
+        <v>293226361</v>
       </c>
       <c r="AU117" s="13" t="n">
-        <v>293226361</v>
+        <v>196837756</v>
       </c>
       <c r="AV117" s="13" t="n">
-        <v>196837756</v>
+        <v>259150567</v>
       </c>
       <c r="AW117" s="13" t="n">
-        <v>259150567</v>
+        <v>259666140</v>
       </c>
       <c r="AX117" s="13" t="n">
-        <v>259666140</v>
+        <v>266852306</v>
       </c>
       <c r="AY117" s="13" t="n">
-        <v>266852306</v>
+        <v>254144664</v>
       </c>
       <c r="AZ117" s="13" t="n">
-        <v>254144664</v>
+        <v>295775048</v>
       </c>
       <c r="BA117" s="13" t="n">
-        <v>295775048</v>
+        <v>318665362</v>
       </c>
       <c r="BB117" s="13" t="n">
-        <v>318665362</v>
+        <v>284245794</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17862,107 +17862,107 @@
       <c r="T118" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U118" s="16" t="s">
-        <v>58</v>
+      <c r="U118" s="16" t="n">
+        <v>166126761</v>
       </c>
       <c r="V118" s="16" t="n">
-        <v>166126761</v>
+        <v>189253521</v>
       </c>
       <c r="W118" s="16" t="n">
-        <v>189253521</v>
+        <v>199470199</v>
       </c>
       <c r="X118" s="16" t="n">
-        <v>199470199</v>
+        <v>232247059</v>
       </c>
       <c r="Y118" s="16" t="n">
-        <v>232247059</v>
+        <v>291792079</v>
       </c>
       <c r="Z118" s="16" t="n">
-        <v>291792079</v>
+        <v>386692308</v>
       </c>
       <c r="AA118" s="16" t="n">
-        <v>386692308</v>
+        <v>313652174</v>
       </c>
       <c r="AB118" s="16" t="n">
-        <v>313652174</v>
+        <v>311153061</v>
       </c>
       <c r="AC118" s="16" t="n">
-        <v>311153061</v>
+        <v>358056818</v>
       </c>
       <c r="AD118" s="16" t="n">
-        <v>358056818</v>
+        <v>353023256</v>
       </c>
       <c r="AE118" s="16" t="n">
-        <v>353023256</v>
+        <v>484285714</v>
       </c>
       <c r="AF118" s="16" t="n">
-        <v>484285714</v>
+        <v>347633333</v>
       </c>
       <c r="AG118" s="16" t="n">
-        <v>347633333</v>
+        <v>284750000</v>
       </c>
       <c r="AH118" s="16" t="n">
-        <v>284750000</v>
+        <v>451166667</v>
       </c>
       <c r="AI118" s="16" t="n">
-        <v>451166667</v>
+        <v>319770833</v>
       </c>
       <c r="AJ118" s="16" t="n">
-        <v>319770833</v>
+        <v>414000000</v>
       </c>
       <c r="AK118" s="16" t="n">
-        <v>414000000</v>
+        <v>538750000</v>
       </c>
       <c r="AL118" s="16" t="n">
-        <v>538750000</v>
+        <v>405624161</v>
       </c>
       <c r="AM118" s="16" t="n">
-        <v>405624161</v>
+        <v>423748252</v>
       </c>
       <c r="AN118" s="16" t="n">
-        <v>423748252</v>
+        <v>436486188</v>
       </c>
       <c r="AO118" s="16" t="n">
-        <v>436486188</v>
+        <v>453311927</v>
       </c>
       <c r="AP118" s="16" t="n">
-        <v>453311927</v>
+        <v>460440000</v>
       </c>
       <c r="AQ118" s="16" t="n">
-        <v>460440000</v>
+        <v>647282609</v>
       </c>
       <c r="AR118" s="16" t="n">
-        <v>647282609</v>
+        <v>795903226</v>
       </c>
       <c r="AS118" s="16" t="n">
-        <v>795903226</v>
+        <v>836906250</v>
       </c>
       <c r="AT118" s="16" t="n">
-        <v>836906250</v>
+        <v>834915344</v>
       </c>
       <c r="AU118" s="16" t="n">
-        <v>834915344</v>
+        <v>817412903</v>
       </c>
       <c r="AV118" s="16" t="n">
-        <v>817412903</v>
+        <v>701384181</v>
       </c>
       <c r="AW118" s="16" t="n">
-        <v>701384181</v>
+        <v>750418239</v>
       </c>
       <c r="AX118" s="16" t="n">
-        <v>750418239</v>
+        <v>686300300</v>
       </c>
       <c r="AY118" s="16" t="n">
-        <v>686300300</v>
+        <v>874238739</v>
       </c>
       <c r="AZ118" s="16" t="n">
-        <v>874238739</v>
+        <v>741491525</v>
       </c>
       <c r="BA118" s="16" t="n">
-        <v>741491525</v>
+        <v>826770833</v>
       </c>
       <c r="BB118" s="16" t="n">
-        <v>826770833</v>
+        <v>1047647059</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18048,80 +18048,80 @@
       <c r="AC119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD119" s="13" t="s">
-        <v>58</v>
+      <c r="AD119" s="13" t="n">
+        <v>113492928</v>
       </c>
       <c r="AE119" s="13" t="n">
-        <v>113492928</v>
+        <v>122579721</v>
       </c>
       <c r="AF119" s="13" t="n">
-        <v>122579721</v>
+        <v>122539103</v>
       </c>
       <c r="AG119" s="13" t="n">
-        <v>122539103</v>
+        <v>130545529</v>
       </c>
       <c r="AH119" s="13" t="n">
-        <v>130545529</v>
+        <v>140565982</v>
       </c>
       <c r="AI119" s="13" t="n">
-        <v>140565982</v>
+        <v>137705094</v>
       </c>
       <c r="AJ119" s="13" t="n">
-        <v>137705094</v>
+        <v>155571429</v>
       </c>
       <c r="AK119" s="13" t="n">
-        <v>155571429</v>
+        <v>159869636</v>
       </c>
       <c r="AL119" s="13" t="n">
-        <v>159869636</v>
+        <v>178262208</v>
       </c>
       <c r="AM119" s="13" t="n">
-        <v>178262208</v>
+        <v>160456196</v>
       </c>
       <c r="AN119" s="13" t="n">
-        <v>160456196</v>
+        <v>147407666</v>
       </c>
       <c r="AO119" s="13" t="n">
-        <v>147407666</v>
+        <v>156010065</v>
       </c>
       <c r="AP119" s="13" t="n">
-        <v>156010065</v>
+        <v>188636905</v>
       </c>
       <c r="AQ119" s="13" t="n">
-        <v>188636905</v>
+        <v>195565770</v>
       </c>
       <c r="AR119" s="13" t="n">
-        <v>195565770</v>
+        <v>194541277</v>
       </c>
       <c r="AS119" s="13" t="n">
-        <v>194541277</v>
+        <v>222600429</v>
       </c>
       <c r="AT119" s="13" t="n">
-        <v>222600429</v>
+        <v>176028271</v>
       </c>
       <c r="AU119" s="13" t="n">
-        <v>176028271</v>
+        <v>176003933</v>
       </c>
       <c r="AV119" s="13" t="n">
-        <v>176003933</v>
+        <v>194972873</v>
       </c>
       <c r="AW119" s="13" t="n">
-        <v>194972873</v>
+        <v>194301493</v>
       </c>
       <c r="AX119" s="13" t="n">
-        <v>194301493</v>
+        <v>165792492</v>
       </c>
       <c r="AY119" s="13" t="n">
-        <v>165792492</v>
+        <v>180147817</v>
       </c>
       <c r="AZ119" s="13" t="n">
-        <v>180147817</v>
+        <v>226678170</v>
       </c>
       <c r="BA119" s="13" t="n">
-        <v>226678170</v>
+        <v>298745247</v>
       </c>
       <c r="BB119" s="13" t="n">
-        <v>298745247</v>
+        <v>252287591</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18207,80 +18207,80 @@
       <c r="AC120" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD120" s="16" t="s">
-        <v>58</v>
+      <c r="AD120" s="16" t="n">
+        <v>193416624</v>
       </c>
       <c r="AE120" s="16" t="n">
-        <v>193416624</v>
+        <v>189364869</v>
       </c>
       <c r="AF120" s="16" t="n">
-        <v>189364869</v>
+        <v>199306977</v>
       </c>
       <c r="AG120" s="16" t="n">
-        <v>199306977</v>
+        <v>191102121</v>
       </c>
       <c r="AH120" s="16" t="n">
-        <v>191102121</v>
+        <v>262883622</v>
       </c>
       <c r="AI120" s="16" t="n">
-        <v>262883622</v>
+        <v>266020891</v>
       </c>
       <c r="AJ120" s="16" t="n">
-        <v>266020891</v>
+        <v>255916806</v>
       </c>
       <c r="AK120" s="16" t="n">
-        <v>255916806</v>
+        <v>253204531</v>
       </c>
       <c r="AL120" s="16" t="n">
-        <v>253204531</v>
+        <v>257926161</v>
       </c>
       <c r="AM120" s="16" t="n">
-        <v>257926161</v>
+        <v>265017779</v>
       </c>
       <c r="AN120" s="16" t="n">
-        <v>265017779</v>
+        <v>275098592</v>
       </c>
       <c r="AO120" s="16" t="n">
-        <v>275098592</v>
+        <v>277992287</v>
       </c>
       <c r="AP120" s="16" t="n">
-        <v>277992287</v>
+        <v>272233733</v>
       </c>
       <c r="AQ120" s="16" t="n">
-        <v>272233733</v>
+        <v>304058911</v>
       </c>
       <c r="AR120" s="16" t="n">
-        <v>304058911</v>
+        <v>351751748</v>
       </c>
       <c r="AS120" s="16" t="n">
-        <v>351751748</v>
+        <v>334169128</v>
       </c>
       <c r="AT120" s="16" t="n">
-        <v>334169128</v>
+        <v>335459546</v>
       </c>
       <c r="AU120" s="16" t="n">
-        <v>335459546</v>
+        <v>352313695</v>
       </c>
       <c r="AV120" s="16" t="n">
-        <v>352313695</v>
+        <v>332898357</v>
       </c>
       <c r="AW120" s="16" t="n">
-        <v>332898357</v>
+        <v>333876675</v>
       </c>
       <c r="AX120" s="16" t="n">
-        <v>333876675</v>
+        <v>337137262</v>
       </c>
       <c r="AY120" s="16" t="n">
-        <v>337137262</v>
+        <v>334658493</v>
       </c>
       <c r="AZ120" s="16" t="n">
-        <v>334658493</v>
+        <v>325822150</v>
       </c>
       <c r="BA120" s="16" t="n">
-        <v>325822150</v>
+        <v>329707639</v>
       </c>
       <c r="BB120" s="16" t="n">
-        <v>329707639</v>
+        <v>312389741</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18366,80 +18366,80 @@
       <c r="AC121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD121" s="13" t="s">
-        <v>58</v>
+      <c r="AD121" s="13" t="n">
+        <v>214685360</v>
       </c>
       <c r="AE121" s="13" t="n">
-        <v>214685360</v>
+        <v>209193478</v>
       </c>
       <c r="AF121" s="13" t="n">
-        <v>209193478</v>
+        <v>208308800</v>
       </c>
       <c r="AG121" s="13" t="n">
-        <v>208308800</v>
+        <v>253499842</v>
       </c>
       <c r="AH121" s="13" t="n">
-        <v>253499842</v>
+        <v>307841019</v>
       </c>
       <c r="AI121" s="13" t="n">
-        <v>307841019</v>
+        <v>298751263</v>
       </c>
       <c r="AJ121" s="13" t="n">
-        <v>298751263</v>
+        <v>281864695</v>
       </c>
       <c r="AK121" s="13" t="n">
-        <v>281864695</v>
+        <v>298069895</v>
       </c>
       <c r="AL121" s="13" t="n">
-        <v>298069895</v>
+        <v>288964563</v>
       </c>
       <c r="AM121" s="13" t="n">
-        <v>288964563</v>
+        <v>298978580</v>
       </c>
       <c r="AN121" s="13" t="n">
-        <v>298978580</v>
+        <v>317443211</v>
       </c>
       <c r="AO121" s="13" t="n">
-        <v>317443211</v>
+        <v>299889176</v>
       </c>
       <c r="AP121" s="13" t="n">
-        <v>299889176</v>
+        <v>295795330</v>
       </c>
       <c r="AQ121" s="13" t="n">
-        <v>295795330</v>
+        <v>305311244</v>
       </c>
       <c r="AR121" s="13" t="n">
-        <v>305311244</v>
+        <v>344563586</v>
       </c>
       <c r="AS121" s="13" t="n">
-        <v>344563586</v>
+        <v>364606179</v>
       </c>
       <c r="AT121" s="13" t="n">
-        <v>364606179</v>
+        <v>379621257</v>
       </c>
       <c r="AU121" s="13" t="n">
-        <v>379621257</v>
+        <v>373862557</v>
       </c>
       <c r="AV121" s="13" t="n">
-        <v>373862557</v>
+        <v>363630547</v>
       </c>
       <c r="AW121" s="13" t="n">
-        <v>363630547</v>
+        <v>366979616</v>
       </c>
       <c r="AX121" s="13" t="n">
-        <v>366979616</v>
+        <v>368216433</v>
       </c>
       <c r="AY121" s="13" t="n">
-        <v>368216433</v>
+        <v>377006832</v>
       </c>
       <c r="AZ121" s="13" t="n">
-        <v>377006832</v>
+        <v>393502765</v>
       </c>
       <c r="BA121" s="13" t="n">
-        <v>393502765</v>
+        <v>397805570</v>
       </c>
       <c r="BB121" s="13" t="n">
-        <v>397805570</v>
+        <v>378134698</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18525,80 +18525,80 @@
       <c r="AC122" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD122" s="16" t="s">
-        <v>58</v>
+      <c r="AD122" s="16" t="n">
+        <v>305993373</v>
       </c>
       <c r="AE122" s="16" t="n">
-        <v>305993373</v>
+        <v>334571221</v>
       </c>
       <c r="AF122" s="16" t="n">
-        <v>334571221</v>
+        <v>335521013</v>
       </c>
       <c r="AG122" s="16" t="n">
-        <v>335521013</v>
+        <v>349565986</v>
       </c>
       <c r="AH122" s="16" t="n">
-        <v>349565986</v>
+        <v>354795226</v>
       </c>
       <c r="AI122" s="16" t="n">
-        <v>354795226</v>
+        <v>373623534</v>
       </c>
       <c r="AJ122" s="16" t="n">
-        <v>373623534</v>
+        <v>392967857</v>
       </c>
       <c r="AK122" s="16" t="n">
-        <v>392967857</v>
+        <v>372853731</v>
       </c>
       <c r="AL122" s="16" t="n">
-        <v>372853731</v>
+        <v>387485133</v>
       </c>
       <c r="AM122" s="16" t="n">
-        <v>387485133</v>
+        <v>395557255</v>
       </c>
       <c r="AN122" s="16" t="n">
-        <v>395557255</v>
+        <v>395114754</v>
       </c>
       <c r="AO122" s="16" t="n">
-        <v>395114754</v>
+        <v>424465943</v>
       </c>
       <c r="AP122" s="16" t="n">
-        <v>424465943</v>
+        <v>490558188</v>
       </c>
       <c r="AQ122" s="16" t="n">
-        <v>490558188</v>
+        <v>504809081</v>
       </c>
       <c r="AR122" s="16" t="n">
-        <v>504809081</v>
+        <v>502825058</v>
       </c>
       <c r="AS122" s="16" t="n">
-        <v>502825058</v>
+        <v>541344799</v>
       </c>
       <c r="AT122" s="16" t="n">
-        <v>541344799</v>
+        <v>484119662</v>
       </c>
       <c r="AU122" s="16" t="n">
-        <v>484119662</v>
+        <v>539117046</v>
       </c>
       <c r="AV122" s="16" t="n">
-        <v>539117046</v>
+        <v>542352028</v>
       </c>
       <c r="AW122" s="16" t="n">
-        <v>542352028</v>
+        <v>542800868</v>
       </c>
       <c r="AX122" s="16" t="n">
-        <v>542800868</v>
+        <v>561909639</v>
       </c>
       <c r="AY122" s="16" t="n">
-        <v>561909639</v>
+        <v>533273537</v>
       </c>
       <c r="AZ122" s="16" t="n">
-        <v>533273537</v>
+        <v>528815147</v>
       </c>
       <c r="BA122" s="16" t="n">
-        <v>528815147</v>
+        <v>602899344</v>
       </c>
       <c r="BB122" s="16" t="n">
-        <v>602899344</v>
+        <v>580203721</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18684,80 +18684,80 @@
       <c r="AC123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD123" s="13" t="s">
-        <v>58</v>
+      <c r="AD123" s="13" t="n">
+        <v>75526124</v>
       </c>
       <c r="AE123" s="13" t="n">
-        <v>75526124</v>
+        <v>74845724</v>
       </c>
       <c r="AF123" s="13" t="n">
-        <v>74845724</v>
+        <v>68302569</v>
       </c>
       <c r="AG123" s="13" t="n">
-        <v>68302569</v>
+        <v>78925204</v>
       </c>
       <c r="AH123" s="13" t="n">
-        <v>78925204</v>
+        <v>80590810</v>
       </c>
       <c r="AI123" s="13" t="n">
-        <v>80590810</v>
+        <v>83873604</v>
       </c>
       <c r="AJ123" s="13" t="n">
-        <v>83873604</v>
+        <v>98150905</v>
       </c>
       <c r="AK123" s="13" t="n">
-        <v>98150905</v>
+        <v>103035093</v>
       </c>
       <c r="AL123" s="13" t="n">
-        <v>103035093</v>
+        <v>100145358</v>
       </c>
       <c r="AM123" s="13" t="n">
-        <v>100145358</v>
+        <v>96216118</v>
       </c>
       <c r="AN123" s="13" t="n">
-        <v>96216118</v>
+        <v>105583679</v>
       </c>
       <c r="AO123" s="13" t="n">
-        <v>105583679</v>
+        <v>121778959</v>
       </c>
       <c r="AP123" s="13" t="n">
-        <v>121778959</v>
+        <v>146248045</v>
       </c>
       <c r="AQ123" s="13" t="n">
-        <v>146248045</v>
+        <v>157374004</v>
       </c>
       <c r="AR123" s="13" t="n">
-        <v>157374004</v>
+        <v>160310492</v>
       </c>
       <c r="AS123" s="13" t="n">
-        <v>160310492</v>
+        <v>164487641</v>
       </c>
       <c r="AT123" s="13" t="n">
-        <v>164487641</v>
+        <v>151319710</v>
       </c>
       <c r="AU123" s="13" t="n">
-        <v>151319710</v>
+        <v>132194882</v>
       </c>
       <c r="AV123" s="13" t="n">
-        <v>132194882</v>
+        <v>122889729</v>
       </c>
       <c r="AW123" s="13" t="n">
-        <v>122889729</v>
+        <v>115845313</v>
       </c>
       <c r="AX123" s="13" t="n">
-        <v>115845313</v>
+        <v>112002241</v>
       </c>
       <c r="AY123" s="13" t="n">
-        <v>112002241</v>
+        <v>107912817</v>
       </c>
       <c r="AZ123" s="13" t="n">
-        <v>107912817</v>
+        <v>108444198</v>
       </c>
       <c r="BA123" s="13" t="n">
-        <v>108444198</v>
+        <v>129389831</v>
       </c>
       <c r="BB123" s="13" t="n">
-        <v>129389831</v>
+        <v>144097421</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18906,12 +18906,12 @@
       <c r="AE125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF125" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG125" s="13" t="n">
+      <c r="AF125" s="13" t="n">
         <v>100832090</v>
       </c>
+      <c r="AG125" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH125" s="13" t="s">
         <v>58</v>
       </c>
@@ -18927,12 +18927,12 @@
       <c r="AL125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM125" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN125" s="13" t="n">
+      <c r="AM125" s="13" t="n">
         <v>142800000</v>
       </c>
+      <c r="AN125" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO125" s="13" t="s">
         <v>58</v>
       </c>
@@ -18942,12 +18942,12 @@
       <c r="AQ125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR125" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS125" s="13" t="n">
+      <c r="AR125" s="13" t="n">
         <v>186509615</v>
       </c>
+      <c r="AS125" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT125" s="13" t="s">
         <v>58</v>
       </c>
@@ -18966,11 +18966,11 @@
       <c r="AY125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ125" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA125" s="13" t="n">
+      <c r="AZ125" s="13" t="n">
         <v>123133333</v>
+      </c>
+      <c r="BA125" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB125" s="13" t="s">
         <v>58</v>
@@ -19032,35 +19032,35 @@
       <c r="T126" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U126" s="16" t="s">
-        <v>58</v>
+      <c r="U126" s="16" t="n">
+        <v>40037332</v>
       </c>
       <c r="V126" s="16" t="n">
-        <v>40037332</v>
+        <v>63198450</v>
       </c>
       <c r="W126" s="16" t="n">
-        <v>63198450</v>
+        <v>83908638</v>
       </c>
       <c r="X126" s="16" t="n">
-        <v>83908638</v>
+        <v>92190107</v>
       </c>
       <c r="Y126" s="16" t="n">
-        <v>92190107</v>
+        <v>155465300</v>
       </c>
       <c r="Z126" s="16" t="n">
-        <v>155465300</v>
+        <v>129927800</v>
       </c>
       <c r="AA126" s="16" t="n">
-        <v>129927800</v>
+        <v>118272289</v>
       </c>
       <c r="AB126" s="16" t="n">
-        <v>118272289</v>
+        <v>106171776</v>
       </c>
       <c r="AC126" s="16" t="n">
-        <v>106171776</v>
-      </c>
-      <c r="AD126" s="16" t="n">
         <v>133308635</v>
+      </c>
+      <c r="AD126" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE126" s="16" t="s">
         <v>58</v>
@@ -19191,35 +19191,35 @@
       <c r="T127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U127" s="13" t="s">
-        <v>58</v>
+      <c r="U127" s="13" t="n">
+        <v>42091256</v>
       </c>
       <c r="V127" s="13" t="n">
-        <v>42091256</v>
+        <v>51190185</v>
       </c>
       <c r="W127" s="13" t="n">
-        <v>51190185</v>
+        <v>63026673</v>
       </c>
       <c r="X127" s="13" t="n">
-        <v>63026673</v>
+        <v>88107264</v>
       </c>
       <c r="Y127" s="13" t="n">
-        <v>88107264</v>
+        <v>100758520</v>
       </c>
       <c r="Z127" s="13" t="n">
-        <v>100758520</v>
+        <v>84707816</v>
       </c>
       <c r="AA127" s="13" t="n">
-        <v>84707816</v>
+        <v>86015127</v>
       </c>
       <c r="AB127" s="13" t="n">
-        <v>86015127</v>
+        <v>90636270</v>
       </c>
       <c r="AC127" s="13" t="n">
-        <v>90636270</v>
-      </c>
-      <c r="AD127" s="13" t="n">
         <v>98339931</v>
+      </c>
+      <c r="AD127" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE127" s="13" t="s">
         <v>58</v>
@@ -19377,77 +19377,77 @@
       <c r="AC128" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD128" s="16" t="s">
-        <v>58</v>
+      <c r="AD128" s="16" t="n">
+        <v>225670455</v>
       </c>
       <c r="AE128" s="16" t="n">
-        <v>225670455</v>
+        <v>223875193</v>
       </c>
       <c r="AF128" s="16" t="n">
-        <v>223875193</v>
+        <v>152230116</v>
       </c>
       <c r="AG128" s="16" t="n">
-        <v>152230116</v>
-      </c>
-      <c r="AH128" s="16" t="n">
         <v>168903292</v>
       </c>
-      <c r="AI128" s="16" t="s">
-        <v>58</v>
+      <c r="AH128" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI128" s="16" t="n">
+        <v>198493553</v>
       </c>
       <c r="AJ128" s="16" t="n">
-        <v>198493553</v>
+        <v>198180401</v>
       </c>
       <c r="AK128" s="16" t="n">
-        <v>198180401</v>
+        <v>164611978</v>
       </c>
       <c r="AL128" s="16" t="n">
-        <v>164611978</v>
-      </c>
-      <c r="AM128" s="16" t="n">
         <v>168825944</v>
       </c>
-      <c r="AN128" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO128" s="16" t="n">
+      <c r="AM128" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN128" s="16" t="n">
         <v>193958910</v>
       </c>
-      <c r="AP128" s="16" t="s">
-        <v>58</v>
+      <c r="AO128" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP128" s="16" t="n">
+        <v>264566788</v>
       </c>
       <c r="AQ128" s="16" t="n">
-        <v>264566788</v>
+        <v>284514551</v>
       </c>
       <c r="AR128" s="16" t="n">
-        <v>284514551</v>
+        <v>228455563</v>
       </c>
       <c r="AS128" s="16" t="n">
-        <v>228455563</v>
+        <v>258878736</v>
       </c>
       <c r="AT128" s="16" t="n">
-        <v>258878736</v>
+        <v>215652941</v>
       </c>
       <c r="AU128" s="16" t="n">
-        <v>215652941</v>
+        <v>220337283</v>
       </c>
       <c r="AV128" s="16" t="n">
-        <v>220337283</v>
+        <v>235135259</v>
       </c>
       <c r="AW128" s="16" t="n">
-        <v>235135259</v>
+        <v>241248974</v>
       </c>
       <c r="AX128" s="16" t="n">
-        <v>241248974</v>
+        <v>217545898</v>
       </c>
       <c r="AY128" s="16" t="n">
-        <v>217545898</v>
+        <v>212405689</v>
       </c>
       <c r="AZ128" s="16" t="n">
-        <v>212405689</v>
-      </c>
-      <c r="BA128" s="16" t="n">
         <v>215423779</v>
+      </c>
+      <c r="BA128" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB128" s="16" t="s">
         <v>58</v>
@@ -19536,80 +19536,80 @@
       <c r="AC129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD129" s="13" t="s">
-        <v>58</v>
+      <c r="AD129" s="13" t="n">
+        <v>101803521</v>
       </c>
       <c r="AE129" s="13" t="n">
-        <v>101803521</v>
+        <v>107178607</v>
       </c>
       <c r="AF129" s="13" t="n">
-        <v>107178607</v>
+        <v>99895304</v>
       </c>
       <c r="AG129" s="13" t="n">
-        <v>99895304</v>
+        <v>111224964</v>
       </c>
       <c r="AH129" s="13" t="n">
-        <v>111224964</v>
+        <v>115425496</v>
       </c>
       <c r="AI129" s="13" t="n">
-        <v>115425496</v>
+        <v>115155608</v>
       </c>
       <c r="AJ129" s="13" t="n">
-        <v>115155608</v>
+        <v>134397506</v>
       </c>
       <c r="AK129" s="13" t="n">
-        <v>134397506</v>
+        <v>133377551</v>
       </c>
       <c r="AL129" s="13" t="n">
-        <v>133377551</v>
+        <v>152424804</v>
       </c>
       <c r="AM129" s="13" t="n">
-        <v>152424804</v>
+        <v>165189414</v>
       </c>
       <c r="AN129" s="13" t="n">
-        <v>165189414</v>
+        <v>160359197</v>
       </c>
       <c r="AO129" s="13" t="n">
-        <v>160359197</v>
+        <v>157563596</v>
       </c>
       <c r="AP129" s="13" t="n">
-        <v>157563596</v>
+        <v>188915866</v>
       </c>
       <c r="AQ129" s="13" t="n">
-        <v>188915866</v>
+        <v>194527614</v>
       </c>
       <c r="AR129" s="13" t="n">
-        <v>194527614</v>
+        <v>198980789</v>
       </c>
       <c r="AS129" s="13" t="n">
-        <v>198980789</v>
+        <v>202261214</v>
       </c>
       <c r="AT129" s="13" t="n">
-        <v>202261214</v>
+        <v>201143563</v>
       </c>
       <c r="AU129" s="13" t="n">
-        <v>201143563</v>
+        <v>169887751</v>
       </c>
       <c r="AV129" s="13" t="n">
-        <v>169887751</v>
+        <v>162717563</v>
       </c>
       <c r="AW129" s="13" t="n">
-        <v>162717563</v>
+        <v>162063919</v>
       </c>
       <c r="AX129" s="13" t="n">
-        <v>162063919</v>
+        <v>166659083</v>
       </c>
       <c r="AY129" s="13" t="n">
-        <v>166659083</v>
+        <v>142345104</v>
       </c>
       <c r="AZ129" s="13" t="n">
-        <v>142345104</v>
+        <v>142689486</v>
       </c>
       <c r="BA129" s="13" t="n">
-        <v>142689486</v>
+        <v>176227195</v>
       </c>
       <c r="BB129" s="13" t="n">
-        <v>176227195</v>
+        <v>206875965</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19698,77 +19698,77 @@
       <c r="AD130" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AE130" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF130" s="16" t="n">
+      <c r="AE130" s="16" t="n">
         <v>224648725</v>
       </c>
-      <c r="AG130" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH130" s="16" t="n">
+      <c r="AF130" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG130" s="16" t="n">
         <v>248809322</v>
       </c>
-      <c r="AI130" s="16" t="s">
-        <v>58</v>
+      <c r="AH130" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI130" s="16" t="n">
+        <v>252404682</v>
       </c>
       <c r="AJ130" s="16" t="n">
-        <v>252404682</v>
+        <v>238619048</v>
       </c>
       <c r="AK130" s="16" t="n">
-        <v>238619048</v>
+        <v>234500000</v>
       </c>
       <c r="AL130" s="16" t="n">
-        <v>234500000</v>
+        <v>254395833</v>
       </c>
       <c r="AM130" s="16" t="n">
-        <v>254395833</v>
+        <v>280300292</v>
       </c>
       <c r="AN130" s="16" t="n">
-        <v>280300292</v>
+        <v>261527273</v>
       </c>
       <c r="AO130" s="16" t="n">
-        <v>261527273</v>
+        <v>244758099</v>
       </c>
       <c r="AP130" s="16" t="n">
-        <v>244758099</v>
-      </c>
-      <c r="AQ130" s="16" t="n">
         <v>258485437</v>
       </c>
-      <c r="AR130" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS130" s="16" t="n">
+      <c r="AQ130" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR130" s="16" t="n">
         <v>312049419</v>
       </c>
-      <c r="AT130" s="16" t="s">
-        <v>58</v>
+      <c r="AS130" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT130" s="16" t="n">
+        <v>337354610</v>
       </c>
       <c r="AU130" s="16" t="n">
-        <v>337354610</v>
+        <v>441600000</v>
       </c>
       <c r="AV130" s="16" t="n">
-        <v>441600000</v>
+        <v>353857143</v>
       </c>
       <c r="AW130" s="16" t="n">
-        <v>353857143</v>
+        <v>355250000</v>
       </c>
       <c r="AX130" s="16" t="n">
-        <v>355250000</v>
+        <v>410964912</v>
       </c>
       <c r="AY130" s="16" t="n">
-        <v>410964912</v>
+        <v>363475000</v>
       </c>
       <c r="AZ130" s="16" t="n">
-        <v>363475000</v>
+        <v>366452830</v>
       </c>
       <c r="BA130" s="16" t="n">
-        <v>366452830</v>
+        <v>508390244</v>
       </c>
       <c r="BB130" s="16" t="n">
-        <v>508390244</v>
+        <v>455748858</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19857,77 +19857,77 @@
       <c r="AD131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE131" s="13" t="s">
-        <v>58</v>
+      <c r="AE131" s="13" t="n">
+        <v>234752137</v>
       </c>
       <c r="AF131" s="13" t="n">
-        <v>234752137</v>
+        <v>181963855</v>
       </c>
       <c r="AG131" s="13" t="n">
-        <v>181963855</v>
+        <v>243587629</v>
       </c>
       <c r="AH131" s="13" t="n">
-        <v>243587629</v>
+        <v>221090000</v>
       </c>
       <c r="AI131" s="13" t="n">
-        <v>221090000</v>
+        <v>163444444</v>
       </c>
       <c r="AJ131" s="13" t="n">
-        <v>163444444</v>
+        <v>203451923</v>
       </c>
       <c r="AK131" s="13" t="n">
-        <v>203451923</v>
+        <v>209043478</v>
       </c>
       <c r="AL131" s="13" t="n">
-        <v>209043478</v>
+        <v>234495098</v>
       </c>
       <c r="AM131" s="13" t="n">
-        <v>234495098</v>
+        <v>295934211</v>
       </c>
       <c r="AN131" s="13" t="n">
-        <v>295934211</v>
+        <v>239066298</v>
       </c>
       <c r="AO131" s="13" t="n">
-        <v>239066298</v>
+        <v>207171717</v>
       </c>
       <c r="AP131" s="13" t="n">
-        <v>207171717</v>
-      </c>
-      <c r="AQ131" s="13" t="n">
         <v>202365385</v>
       </c>
-      <c r="AR131" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS131" s="13" t="n">
+      <c r="AQ131" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR131" s="13" t="n">
         <v>321931818</v>
       </c>
-      <c r="AT131" s="13" t="s">
-        <v>58</v>
+      <c r="AS131" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT131" s="13" t="n">
+        <v>376696970</v>
       </c>
       <c r="AU131" s="13" t="n">
-        <v>376696970</v>
-      </c>
-      <c r="AV131" s="13" t="n">
         <v>360975610</v>
       </c>
+      <c r="AV131" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW131" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AX131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY131" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ131" s="13" t="n">
+      <c r="AY131" s="13" t="n">
         <v>321925926</v>
       </c>
-      <c r="BA131" s="13" t="s">
-        <v>58</v>
+      <c r="AZ131" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA131" s="13" t="n">
+        <v>397461538</v>
       </c>
       <c r="BB131" s="13" t="n">
-        <v>397461538</v>
+        <v>330362319</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20028,20 +20028,20 @@
       <c r="AH132" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI132" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ132" s="16" t="n">
+      <c r="AI132" s="16" t="n">
         <v>230200000</v>
       </c>
+      <c r="AJ132" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AK132" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL132" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM132" s="16" t="n">
+      <c r="AL132" s="16" t="n">
         <v>208952381</v>
+      </c>
+      <c r="AM132" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN132" s="16" t="s">
         <v>58</v>
@@ -20172,80 +20172,80 @@
       <c r="AC133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD133" s="13" t="s">
-        <v>58</v>
+      <c r="AD133" s="13" t="n">
+        <v>75302294</v>
       </c>
       <c r="AE133" s="13" t="n">
-        <v>75302294</v>
+        <v>67777486</v>
       </c>
       <c r="AF133" s="13" t="n">
-        <v>67777486</v>
+        <v>64880405</v>
       </c>
       <c r="AG133" s="13" t="n">
-        <v>64880405</v>
+        <v>74639128</v>
       </c>
       <c r="AH133" s="13" t="n">
-        <v>74639128</v>
+        <v>75047510</v>
       </c>
       <c r="AI133" s="13" t="n">
-        <v>75047510</v>
+        <v>82625267</v>
       </c>
       <c r="AJ133" s="13" t="n">
-        <v>82625267</v>
+        <v>83264986</v>
       </c>
       <c r="AK133" s="13" t="n">
-        <v>83264986</v>
+        <v>88968545</v>
       </c>
       <c r="AL133" s="13" t="n">
-        <v>88968545</v>
+        <v>86217230</v>
       </c>
       <c r="AM133" s="13" t="n">
-        <v>86217230</v>
+        <v>92233438</v>
       </c>
       <c r="AN133" s="13" t="n">
-        <v>92233438</v>
+        <v>99713794</v>
       </c>
       <c r="AO133" s="13" t="n">
-        <v>99713794</v>
+        <v>102892986</v>
       </c>
       <c r="AP133" s="13" t="n">
-        <v>102892986</v>
+        <v>146710015</v>
       </c>
       <c r="AQ133" s="13" t="n">
-        <v>146710015</v>
+        <v>132525820</v>
       </c>
       <c r="AR133" s="13" t="n">
-        <v>132525820</v>
+        <v>140641785</v>
       </c>
       <c r="AS133" s="13" t="n">
-        <v>140641785</v>
+        <v>146705695</v>
       </c>
       <c r="AT133" s="13" t="n">
-        <v>146705695</v>
+        <v>108530322</v>
       </c>
       <c r="AU133" s="13" t="n">
-        <v>108530322</v>
+        <v>97888738</v>
       </c>
       <c r="AV133" s="13" t="n">
-        <v>97888738</v>
+        <v>84073502</v>
       </c>
       <c r="AW133" s="13" t="n">
-        <v>84073502</v>
+        <v>88350963</v>
       </c>
       <c r="AX133" s="13" t="n">
-        <v>88350963</v>
+        <v>97251945</v>
       </c>
       <c r="AY133" s="13" t="n">
-        <v>97251945</v>
+        <v>76970097</v>
       </c>
       <c r="AZ133" s="13" t="n">
-        <v>76970097</v>
+        <v>84824110</v>
       </c>
       <c r="BA133" s="13" t="n">
-        <v>84824110</v>
+        <v>115389490</v>
       </c>
       <c r="BB133" s="13" t="n">
-        <v>115389490</v>
+        <v>133352968</v>
       </c>
     </row>
   </sheetData>
